--- a/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
+++ b/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
+++ b/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00199576</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2002</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Prevention of Post-Extubation Laryngeal Edema With Intravenous Corticosteroids: a Prospective, Double-Blind, Placebo-Controlled Trial.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00199615</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Follow-up of Patients With Curative-Intent Surgical Resection for NSCLC : CT Scanning Versus 18 FDG Imaging.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -596,36 +611,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00199719</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Study of the Pharmacokinetic Action of Amantadine and Ribavirin in Chronic Hepatitis C Non 2 -3 Genotype naïve Patients Treated With a 12 Weeks Bitherapy of Peginterferon Alpha 2a-Ribavirin, and Followed by a Tritherapy of Peginterferon Alpha 2a-Ribavirin-Amantadine for 36 Weeks</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>CINAM</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -644,32 +664,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00455676</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chevron Osteotomy Versus SCARF Osteotomy in the Treatment of Hallux Valgus</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -688,32 +713,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00344526</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Autologous Stem Cell Transplantation (ASCT) Versus Oral Melphalan and High-Dose Dexamethasone in Patients With AL (Primary)Amyloidosis. A Prospective Randomized Trial .</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -732,32 +762,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00199589</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Treatment of Spastic Equinovarus Foot After Stroke. Efficacy: Association Between Ankle Foot Orthosis and Botulinum Toxin A (BTA) Injection</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -776,32 +811,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT00199758</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>A Randomized Phase II Trial of Early Change of a Chemotherapeutic Doublet Versus Four Cycles of Chemotherapy in Advanced Non Small Cell Lung Cancer.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -820,36 +860,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT00820937</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Interest of the Combination of the DaTSCAN Scintigraphy and MRI Scan in the Differential Diagnosis of Lewy Body Dementia From Alzheimer Disease in Patients With Hallucinations</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>DatScan</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -868,36 +913,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT00492492</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Treatement of Extension Fractures of the Distal Radius : Prospective Randomized Postoperative Comparison Between Trans-styloid and Intrafical Pinning on the One Side and Volar Fixed-angle Plating on the Other Side.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>fradius</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -916,36 +966,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT00820326</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>A Randomized, Double-Blind, Placebo-Controlled, Study of Efficacy of DOLASETRON in Patients With Fibromyalgia</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Dolastron</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -964,36 +1019,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT00827463</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>The Early Detection of Anaemia During the Maternity Decreases the Anaemia at the End of the Maternity.</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>anémie</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1012,32 +1072,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT00284778</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>A Randomized Cost-minimization Trial Comparing Pemetrexed (Alimta®) Versus Docetaxel (Taxotere®) as Second Line Treatment in Advanced Non Small Cell Lung Cancer (NSCLC): Study 05-06 of Groupe Français de Pneumo-Cancérologie (GFPC).</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1056,36 +1121,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT00797537</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Concordance Entre l'échographie du Genou et la Radiographie Standard Dans la détection Des Calcifications Dans le Cadre de la Chondrocalcinose Articulaire</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>chondro</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1104,36 +1174,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT00805402</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Interest of Flow Cytometry for the Diagnosis, the Follow up and SIT Arrest of Hymenoptera Venom Allergy</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Cytoven</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1152,32 +1227,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT00199602</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Prophylaxis of Thrombosis With Implantable Devices for Central Venous Access in Cancer Patients : Phase III Randomised Study</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1196,36 +1276,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT00754533</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Influence of Different Exercise Training Programs in Patients With Coronary Artery Disease on Cardiac and Respiratory Parameters</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>FRAXIO</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1244,36 +1329,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT00456235</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Interruption of the Calcineurine Inhibitors (ICN) and Introduction of Mycophenolate Mofetil (MMF) in Liver Transplant Patients With Side Effects Due to ICN: Study of the Reduction of the Risks of Rejection by Mycophenolate Mofetil Therapeutic Drug Monitoring</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>MONOCEPT</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1292,36 +1382,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT00826683</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Detection of Circulating Endothelial Progenitor Cells (EPCs) in Peripheral Blood From Non-small Cell Lung Cancer Patients</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>CBNPC:PCE</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1340,36 +1435,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT00630695</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2007-003576-19</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Evaluation of the Efficacity of Lanreotide LP 90 mg to Minimized the Lymphorrhea Post Axillary Lymphadenectomy in Breast Cancer</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1388,36 +1488,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT00551798</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Prediction of the Response to Chemotherapy by Tomoscintigraphie the MIBI in the Balance Sheet Pre Hodgkin's Disease and Lymphoma Malins High Grade</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>MIBI</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1436,36 +1541,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT00812786</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Multicentre, Open Study for the Setting up of Population Pharmacokinetic Models and Bayesian Estimators for Individual Dose Adjustment of Immunosuppressive Drugs (Cyclosporine, Tacrolimus, Mycophenolate Mofetil, Everolimus) During the First Year Post-grafting in Adult Heart Transplant Recipients.</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>PIGREC</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1484,32 +1594,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT00283985</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Phase II Study of an Association of L-asparaginase-Methotrexate-Dexamethasone for Relapsing and/or Refractory Nasal and Nasal-type NK-T-cell Lymphoma</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
         <v>1</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1528,36 +1643,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT00812864</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Pharmacokinetic Study of Capecitabine in Elderly Cancer Patient (≥75 Years)</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>capagec</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1576,36 +1696,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT01008540</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Cytomegalovirus Resistance in Transplant Patients and Bone Marrow Recipients in the Prophylaxis Era, a French Multicentric Cohort Study</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>PHRC CMV</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1624,40 +1749,45 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT01432977</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2011-002213-12</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Paracetamol and Setrons : Drug Interactions in the Management of Pain After Tonsillectomy in Children</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>PARATRON</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
         <v>1</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1676,36 +1806,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT01659190</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>The Painful Real-life Experience of the Child of Less Than Three Years During the Removal of the Collecting Bags in the Pediatric Urgency: What Strategy of Coverage?</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>LINIPOCHE</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1724,32 +1859,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT00199654</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>PET Interest in the Follow Up of Colorectal Cancer Stage II and III: Phase III Randomised Study</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
         <v>1</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1768,40 +1908,45 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT01200771</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2007-005823-14</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Impact of the PET-scan in the Diagnosis Strategy of Fever Unknown Origin or Inflammatory Syndrome in Immunocompetent Patients</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>FUO-TEP</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
         <v>1</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1820,36 +1965,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01350817</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Randomized Open Non Comparative Multicenter Phase II Study of Sequential Erlotinib With Docetaxel Versus Docetaxel Alone in Second Line of Treatment in Patients With Non Small Cell Lung Cancer After Failure of First Line Chemotherapy</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>TARSEQ</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1868,36 +2018,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT01188993</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Hemodynamic Assessment With Transpulmonary Thermodilution and Transesophageal Echocardiography in Patients With Early Septic Shock</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>HEMOSEPSIS</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
         <v>1</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>COMBINATION_PRODUCT</t>
         </is>
@@ -1916,40 +2071,45 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT01268033</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2009-018266-35</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>A Prospective, Randomized, Double Blind, Placebo-controlled Phase II/III Study Evaluating the Efficacy of Rituximab in the Prevention of Relapse of Calcineurin Inhibitors Dependent Idiopathic Nephrotic Syndrome of Childhood</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>NEPHRUTIX</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
         <v>1</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1968,36 +2128,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT01369797</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Prospective Randomized Study of the Impact on the Autonomy of the Elderly of 75 Years of Age and Older by the Unit for Prevention, Monitoring and Analysis of Aging (UPSAV).</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>GEROPASS</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2016,36 +2181,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT01775527</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>IgA Nephropathy, Lymphocyte Homing and IgA Class Switch</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>NIDOCIGA</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2064,36 +2234,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT02374866</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Monitoring Obese Patients: Impact on the Frequency of Monitoring Weight, Quality of Life, Dietary Behavior, Physical Ability and Comorbidities</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>SUIVIOBESITE</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2112,36 +2287,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT02164890</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Pharmacokinetics of Micafungin in Patients of Intensive Care Units</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>MI-K</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2160,40 +2340,45 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT01029678</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2009-012413-21</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Phase II Study Evaluating Treatment With Oral Navelbine and Cisplatin Administered Weekly and Concomitant Radiotherapy in Elderly Patients With no Operable NSCLC</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>RACCOSA</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
         <v>1</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -2212,28 +2397,30 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT02779920</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Feasibility of Endoscopic Pylorotomy in the Treatment of Refractory Gastroparesis, Pilot Study.</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>GASTROPOP</t>
         </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
@@ -2241,7 +2428,10 @@
       <c r="K38" t="b">
         <v>1</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2260,40 +2450,45 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT02186951</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2014-000202-35</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Prevention of Early Ventilator-associated Pneumonia With Antibiotic Therapy in Patients Treated With Mild Therapeutic Hypothermia After Cardiac Arrest.</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>ANTHARTIC</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2312,36 +2507,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT02278627</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Impact of a Technique of Massage During the First Week of Hospitalization on the Recycling of the Mobility of the Knee Further to the Installation of Knee Replacement</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>PTGMass</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2360,36 +2560,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT02694484</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Search Cytomegalovirus (CMV) in Healthy Volunteers Stools Samples Selected as Potential Donor for Fecal Microbiota Transplant</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>TRANSFECMV</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2408,36 +2613,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT02300376</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Designing a Bayesian Model of the Plasma Clearance of Calcium Edetate de Sodium, With a Limited Sampling Strategy for the Calculation of Glomerular Filtration Rate (GFR) and Validity Assessment Compared to the Renal Clearance of Inulin : DFGBay</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>DFGBay</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2456,36 +2666,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT01795612</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Adapted Physical Activity Effect on Aerobic Function and Fatigue at Home in Patients With Breast Cancer Treated in Adjuvant or Neoadjuvant Phase</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>APAC</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2504,36 +2719,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT01862822</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Position of Children During Urine Collection: Evaluation Study</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>PUCES</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2552,36 +2772,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT03511612</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Comparison of the Ankle-Brachial Index Measurement Using a Specific Oscillometric Device vs. the Doppler Method</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>ABIOSCILLO</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2600,36 +2825,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT02778984</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Facial Mask Tightness: A Comparative Study</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>EMAF</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2648,28 +2878,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT01822938</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Follow-up of Patients' Physical Activity in Post-hospitalization by Implementation of Systems of Active Monitoring.</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>TICAA'DOM</t>
         </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
@@ -2677,7 +2909,10 @@
       <c r="K47" t="b">
         <v>1</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2694,40 +2929,45 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2016-000106-11</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>EVALUATION OF THE EFFICIENCY OF TREATMENT BY BUMETANIDE ON AUTISTIC CHILDREN WITH A KNOWN ETIOLOGY: MULTICENTER AND DOUBLE-BLIND STUDY WITH RANDOMIZED PARALLEL GROUP, AGAINST PLACEBO. 
  Evaluation de l'efficacité d'un traitement par bumétanide chez les enfants autistes avec une étiologie connue : étude multicentrique randomisée en groupes parallèles et double aveugle contre placebo.</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>BUMAUTEP 
  BUMAUTEP</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
         <v>1</v>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2742,36 +2982,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT02460250</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Evaluation of Liver Grafts With FibroScan® Before Organ Retrieval in Patients With Brain Death</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>FIBROSCAME</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2790,36 +3035,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT01639898</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Phase II Trial With Lenalidomide-Dexamethasone Combination in the Treatment of POEMS Syndrome.</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>POEMS</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2838,36 +3088,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT03157011</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Evaluation of the Prevalence of Functional Digestive Disorders During Primary Sjögren Gougerot Syndrome</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>GASTRO-SGS</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2886,32 +3141,34 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT02373371</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2014-003602-32</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Efficacy and Safety of Metvix® Natural Daylight Photodynamic Therapy Versus Conventional Metvix® Photodynamic Therapy in Subject With Mild Actinic Keratoses</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>Metvix®, Natural Daylight Photodynamic Therapy, Actinic keratosis</t>
         </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
@@ -2919,7 +3176,10 @@
       <c r="K52" t="b">
         <v>1</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2938,36 +3198,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT02563821</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Programmed Intermittent Epidural Bolus Versus Continuous Epidural Infusion for Third Trimester Medical Termination of Pregnancy Analgesia : a Randomized Study.</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>PCEA-IMG</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2986,36 +3251,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT03205397</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Impact of a Child-Parent Preoperative Accompanying Procedure on the Anxiety of Children Aged 5 to 12 With Scheduled Surgery</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>I-PPOP</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3034,36 +3304,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT03559283</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Using Functional Near-infrared Spectroscopy (fNIRS) in the Evaluation of Cognitive-motor Interference in Post-stroke Patients</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>ICM-AVC</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3082,40 +3357,45 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT03769597</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2018-002778-35</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Description of the Evolution of Plasma and Urinary Concentrations of Iohexol in a Cirrhotic Patient Population: "Pilot Study on 9 Patients"</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>DFG HEP</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3134,36 +3414,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT02047591</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Study of a Therapy Without Drugs, Supplementary to an Usual Treatment for the Pains Caused by Removing the Redon's Drain From a 7 to 17 Years Old Child in Pediatric Surgery.</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>TOUTETDOU</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3182,36 +3467,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT02993133</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Pharmacokinetics Study of Mycophenolic Acid in Patients With an Autoimmune Bullous Dermatose, Pemphigus or Cicatricial Pemphigoid.</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>PEMPA</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3230,40 +3520,45 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT01501760</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2010-022858-16</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Effect of Bevacizumab Subconjunctival Injections on Corneal Newvessels</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>BECONNEC</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3282,36 +3577,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT02716051</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Initial Staging of Bronchopulmonary Neoplasia: Whole-body MRI Versus Pet Scanner</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>WISLON</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3330,36 +3630,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT02816177</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Impact of Telemedicine on Avoiding Emergency Hospital Admissions and Hospitalization for Nursing Home Residents</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>GERONTACCESS</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3378,36 +3683,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT03076151</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Interventional Multicentre Pharmacokinetic Study of Adoport® (Tacrolimus) in Patients With de Novo Kidney Transplantation</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>IMPAKT</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3426,36 +3736,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT03118401</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Stool Ritual: Impact on the Number of Nights Without Stools Among Dependent Residents in Institutions for Dependent Elderly People</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>RITUELIM</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
         <v>1</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3474,36 +3789,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT02155686</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Etude de l'Impact Clinique de la télésurveillance à Domicile Par télémédecine de paramètres biométriques de la Personne âgée Polypathologique</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>e-COBAHLT</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3522,36 +3842,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT02683590</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>STernectOmy Repair Efficiency of a Ceramic Implant</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>STOIC</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3570,32 +3895,34 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT02531737</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2015-000475-27</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Multicenter Phase II Trial of Nintedanib (Vargatef®) Plus Docetaxel in Second Line of Treatment in Patients With no Squamous Non Small Cell Lung Cancer Refractory to First Line Chemotherapy</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>REFRACT</t>
         </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
@@ -3603,7 +3930,10 @@
       <c r="K66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3622,32 +3952,34 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT02816476</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2016-000287-42</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>A Multicentre Open Label Phase II Study of Daratumumab in AL Amyloidosis Patients Not in VGPR or Better</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>AMYDARA</t>
         </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
@@ -3655,7 +3987,10 @@
       <c r="K67" t="b">
         <v>1</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3674,32 +4009,37 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT04885387</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>X-ray-free Protocol for Pectus Deformities Based on Magnetic Resonance 1 Imaging and a Low-cost Portable Three-dimensional Scanning Device</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3718,36 +4058,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT03698565</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Evaluation of the Analgesia Nociception Index and Videopupillometry to Predict a Child's Post-tonsillectomy Morphine Prescription</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>ENIGME</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3766,36 +4111,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT04797117</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Analytical Validation of the abioSCOPE Device With a PSP Test: Point-of-Care Precision, Sample Type Comparison and Sample Stability</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>AB-PSP-005</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3814,36 +4164,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT02152449</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Impact on Functional Status of Early Oral Nutritional Supplementation (ONS) in Amyotrophic Lateral Sclerosis (ALS) Patients</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>NUTRALS</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -3862,36 +4217,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT04889573</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Immunoglobulin Gene Rearrangement and Repair in Healthy Donors</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>R2IGH</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -3910,36 +4270,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT03185663</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Pilot Study Comparing Two Techniques of Taking Care Analgesic in Patients 70 and Older, Awaiting Surgery After Extracapsular Fracture of the Proximal Femur</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>ALGOFRACT</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3958,36 +4323,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT02334345</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Skin Protection During Radiotherapy in Patients With Breast Cancer: A Comparative Study of Evoskin® Verus Trixéra®</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>EVOSKIN</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4006,36 +4376,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT04803799</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Effects of an Exergame Focused on Cognitive-motor Interference on the Cognitive and Motor Capacities of Older Adults</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>INCOME</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4054,36 +4429,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT02813928</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Diagnostic and Prognosis Value of Circulating DNA for CRC Patients' Surveillance After Curative Treatment</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>ADNCirc</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -4102,36 +4482,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT05540210</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Analytical Validation of the abioSCOPE Device With the IVD CAPSULE PSP Test: Comparison of PSP Values Measured With Venous Whole Blood and Those Measured With Arterial Whole Blood</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>AB-PSP-006</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4150,36 +4535,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT05171114</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Scleroderma: Description of Functional Disability Between the Dominant and Contralateral Hand, a Single-centre Descriptive Cohort.</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>SCLERO-HAND</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4198,36 +4588,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT05477238</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Oxygen Consumption in Post-stroke Patients During Various Walking Activities Compared to Healthy Controls</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>STROXCO</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4246,36 +4641,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT05545566</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Evaluation of Thoracic Ultrasound in Monitoring Pleural Drainage in Postoperative Thoracic Surgery</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>EchTHor</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4294,28 +4694,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT03133273</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Study of the Therapeutic Response and Survival of Patients with Metastatic Colorectal Cancer (stage IV) and Treated According to the Guidelines of a Chemosensitivity Test, Oncogramme®</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>ONCOGRAM</t>
         </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
@@ -4323,7 +4725,10 @@
       <c r="K81" t="b">
         <v>1</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4342,32 +4747,37 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT01305161</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
         <is>
           <t>Diagnostic Accuracy of Flow Cytometry Applied to the Diagnosis of Peri-anaesthesic Reactions Induced by Neuromuscular Blockers</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>CYPREANE</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4386,28 +4796,33 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT00199641</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
         <is>
           <t>Evaluation of Two Enteral Nutrition Strategies in Mechanically Ventilated Patients</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4424,34 +4839,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2006-005113-35</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
         <is>
           <t>Efficacité d'un ocytocique seul versus ocytocique/misoprostol sur la quantité des pertes sanguines liées à la délivrance</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>GYMISO</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4466,28 +4886,33 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT00559195</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
         <is>
           <t>Phase 2 Study Evaluating the Efficacy of Epoetin Beta (Neocormon®) For Fatigue and Quality of Life of Patients Receiving Palliative Care for a Solid Malignant Tumor</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4506,28 +4931,33 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT00559676</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
         <is>
           <t>Phase 4 Study to Characterize and Evaluate Markers of Chemoresistance in Patients With Metastatic Colorectal Cancer</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" t="b">
         <v>1</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>

--- a/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
+++ b/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
+++ b/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
+++ b/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00199576</t>

--- a/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
+++ b/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
@@ -70,6 +70,9 @@
     <t>NCT00199576</t>
   </si>
   <si>
+    <t>NCT00344526</t>
+  </si>
+  <si>
     <t>NCT00199615</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t>NCT00455676</t>
   </si>
   <si>
-    <t>NCT00344526</t>
-  </si>
-  <si>
     <t>NCT00199589</t>
   </si>
   <si>
@@ -91,36 +91,36 @@
     <t>NCT00820937</t>
   </si>
   <si>
+    <t>NCT00820326</t>
+  </si>
+  <si>
     <t>NCT00492492</t>
   </si>
   <si>
-    <t>NCT00820326</t>
-  </si>
-  <si>
     <t>NCT00827463</t>
   </si>
   <si>
     <t>NCT00284778</t>
   </si>
   <si>
+    <t>NCT00199602</t>
+  </si>
+  <si>
+    <t>NCT00805402</t>
+  </si>
+  <si>
+    <t>NCT00754533</t>
+  </si>
+  <si>
     <t>NCT00797537</t>
   </si>
   <si>
-    <t>NCT00805402</t>
-  </si>
-  <si>
-    <t>NCT00199602</t>
-  </si>
-  <si>
-    <t>NCT00754533</t>
+    <t>NCT00826683</t>
   </si>
   <si>
     <t>NCT00456235</t>
   </si>
   <si>
-    <t>NCT00826683</t>
-  </si>
-  <si>
     <t>NCT00630695</t>
   </si>
   <si>
@@ -130,15 +130,15 @@
     <t>NCT00812786</t>
   </si>
   <si>
+    <t>NCT00812864</t>
+  </si>
+  <si>
+    <t>NCT01008540</t>
+  </si>
+  <si>
     <t>NCT00283985</t>
   </si>
   <si>
-    <t>NCT00812864</t>
-  </si>
-  <si>
-    <t>NCT01008540</t>
-  </si>
-  <si>
     <t>NCT01432977</t>
   </si>
   <si>
@@ -151,30 +151,30 @@
     <t>NCT01200771</t>
   </si>
   <si>
+    <t>NCT01188993</t>
+  </si>
+  <si>
+    <t>NCT01268033</t>
+  </si>
+  <si>
     <t>NCT01350817</t>
   </si>
   <si>
-    <t>NCT01188993</t>
-  </si>
-  <si>
-    <t>NCT01268033</t>
-  </si>
-  <si>
     <t>NCT01369797</t>
   </si>
   <si>
+    <t>NCT02164890</t>
+  </si>
+  <si>
+    <t>NCT01029678</t>
+  </si>
+  <si>
+    <t>NCT02374866</t>
+  </si>
+  <si>
     <t>NCT01775527</t>
   </si>
   <si>
-    <t>NCT02374866</t>
-  </si>
-  <si>
-    <t>NCT02164890</t>
-  </si>
-  <si>
-    <t>NCT01029678</t>
-  </si>
-  <si>
     <t>NCT02779920</t>
   </si>
   <si>
@@ -184,117 +184,117 @@
     <t>NCT02278627</t>
   </si>
   <si>
+    <t>NCT02300376</t>
+  </si>
+  <si>
+    <t>NCT01795612</t>
+  </si>
+  <si>
+    <t>NCT01862822</t>
+  </si>
+  <si>
     <t>NCT02694484</t>
   </si>
   <si>
-    <t>NCT02300376</t>
-  </si>
-  <si>
-    <t>NCT01795612</t>
-  </si>
-  <si>
-    <t>NCT01862822</t>
+    <t>NCT02460250</t>
+  </si>
+  <si>
+    <t>NCT01822938</t>
+  </si>
+  <si>
+    <t>NCT01639898</t>
   </si>
   <si>
     <t>NCT03511612</t>
   </si>
   <si>
+    <t>NCT03205397</t>
+  </si>
+  <si>
+    <t>NCT02563821</t>
+  </si>
+  <si>
+    <t>NCT03157011</t>
+  </si>
+  <si>
+    <t>NCT02373371</t>
+  </si>
+  <si>
     <t>NCT02778984</t>
   </si>
   <si>
-    <t>NCT01822938</t>
-  </si>
-  <si>
-    <t>NCT02460250</t>
-  </si>
-  <si>
-    <t>NCT01639898</t>
-  </si>
-  <si>
-    <t>NCT03157011</t>
-  </si>
-  <si>
-    <t>NCT02373371</t>
-  </si>
-  <si>
-    <t>NCT02563821</t>
-  </si>
-  <si>
-    <t>NCT03205397</t>
+    <t>NCT01501760</t>
+  </si>
+  <si>
+    <t>NCT03076151</t>
+  </si>
+  <si>
+    <t>NCT02155686</t>
+  </si>
+  <si>
+    <t>NCT03118401</t>
+  </si>
+  <si>
+    <t>NCT02993133</t>
+  </si>
+  <si>
+    <t>NCT02047591</t>
+  </si>
+  <si>
+    <t>NCT02716051</t>
+  </si>
+  <si>
+    <t>NCT03769597</t>
+  </si>
+  <si>
+    <t>NCT02816177</t>
   </si>
   <si>
     <t>NCT03559283</t>
   </si>
   <si>
-    <t>NCT03769597</t>
-  </si>
-  <si>
-    <t>NCT02047591</t>
-  </si>
-  <si>
-    <t>NCT02993133</t>
-  </si>
-  <si>
-    <t>NCT01501760</t>
-  </si>
-  <si>
-    <t>NCT02716051</t>
-  </si>
-  <si>
-    <t>NCT02816177</t>
-  </si>
-  <si>
-    <t>NCT03076151</t>
-  </si>
-  <si>
-    <t>NCT03118401</t>
-  </si>
-  <si>
-    <t>NCT02155686</t>
-  </si>
-  <si>
     <t>NCT02683590</t>
   </si>
   <si>
+    <t>NCT03698565</t>
+  </si>
+  <si>
+    <t>NCT04885387</t>
+  </si>
+  <si>
     <t>NCT02531737</t>
   </si>
   <si>
     <t>NCT02816476</t>
   </si>
   <si>
-    <t>NCT04885387</t>
-  </si>
-  <si>
-    <t>NCT03698565</t>
+    <t>NCT02334345</t>
+  </si>
+  <si>
+    <t>NCT02152449</t>
   </si>
   <si>
     <t>NCT04797117</t>
   </si>
   <si>
-    <t>NCT02152449</t>
+    <t>NCT03185663</t>
   </si>
   <si>
     <t>NCT04889573</t>
   </si>
   <si>
-    <t>NCT03185663</t>
-  </si>
-  <si>
-    <t>NCT02334345</t>
+    <t>NCT02813928</t>
   </si>
   <si>
     <t>NCT04803799</t>
   </si>
   <si>
-    <t>NCT02813928</t>
+    <t>NCT05171114</t>
   </si>
   <si>
     <t>NCT05540210</t>
   </si>
   <si>
-    <t>NCT05171114</t>
-  </si>
-  <si>
     <t>NCT05477238</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>2014-003602-32</t>
   </si>
   <si>
+    <t>2010-022858-16</t>
+  </si>
+  <si>
     <t>2018-002778-35</t>
   </si>
   <si>
-    <t>2010-022858-16</t>
-  </si>
-  <si>
     <t>2015-000475-27</t>
   </si>
   <si>
@@ -418,6 +418,9 @@
     <t>Prevention of Post-Extubation Laryngeal Edema With Intravenous Corticosteroids: a Prospective, Double-Blind, Placebo-Controlled Trial.</t>
   </si>
   <si>
+    <t>Autologous Stem Cell Transplantation (ASCT) Versus Oral Melphalan and High-Dose Dexamethasone in Patients With AL (Primary)Amyloidosis. A Prospective Randomized Trial .</t>
+  </si>
+  <si>
     <t>Follow-up of Patients With Curative-Intent Surgical Resection for NSCLC : CT Scanning Versus 18 FDG Imaging.</t>
   </si>
   <si>
@@ -427,9 +430,6 @@
     <t>Chevron Osteotomy Versus SCARF Osteotomy in the Treatment of Hallux Valgus</t>
   </si>
   <si>
-    <t>Autologous Stem Cell Transplantation (ASCT) Versus Oral Melphalan and High-Dose Dexamethasone in Patients With AL (Primary)Amyloidosis. A Prospective Randomized Trial .</t>
-  </si>
-  <si>
     <t>Treatment of Spastic Equinovarus Foot After Stroke. Efficacy: Association Between Ankle Foot Orthosis and Botulinum Toxin A (BTA) Injection</t>
   </si>
   <si>
@@ -439,36 +439,36 @@
     <t>Interest of the Combination of the DaTSCAN Scintigraphy and MRI Scan in the Differential Diagnosis of Lewy Body Dementia From Alzheimer Disease in Patients With Hallucinations</t>
   </si>
   <si>
+    <t>A Randomized, Double-Blind, Placebo-Controlled, Study of Efficacy of DOLASETRON in Patients With Fibromyalgia</t>
+  </si>
+  <si>
     <t>Treatement of Extension Fractures of the Distal Radius : Prospective Randomized Postoperative Comparison Between Trans-styloid and Intrafical Pinning on the One Side and Volar Fixed-angle Plating on the Other Side.</t>
   </si>
   <si>
-    <t>A Randomized, Double-Blind, Placebo-Controlled, Study of Efficacy of DOLASETRON in Patients With Fibromyalgia</t>
-  </si>
-  <si>
     <t>The Early Detection of Anaemia During the Maternity Decreases the Anaemia at the End of the Maternity.</t>
   </si>
   <si>
     <t>A Randomized Cost-minimization Trial Comparing Pemetrexed (Alimta®) Versus Docetaxel (Taxotere®) as Second Line Treatment in Advanced Non Small Cell Lung Cancer (NSCLC): Study 05-06 of Groupe Français de Pneumo-Cancérologie (GFPC).</t>
   </si>
   <si>
+    <t>Prophylaxis of Thrombosis With Implantable Devices for Central Venous Access in Cancer Patients : Phase III Randomised Study</t>
+  </si>
+  <si>
+    <t>Interest of Flow Cytometry for the Diagnosis, the Follow up and SIT Arrest of Hymenoptera Venom Allergy</t>
+  </si>
+  <si>
+    <t>Influence of Different Exercise Training Programs in Patients With Coronary Artery Disease on Cardiac and Respiratory Parameters</t>
+  </si>
+  <si>
     <t>Concordance Entre l'échographie du Genou et la Radiographie Standard Dans la détection Des Calcifications Dans le Cadre de la Chondrocalcinose Articulaire</t>
   </si>
   <si>
-    <t>Interest of Flow Cytometry for the Diagnosis, the Follow up and SIT Arrest of Hymenoptera Venom Allergy</t>
-  </si>
-  <si>
-    <t>Prophylaxis of Thrombosis With Implantable Devices for Central Venous Access in Cancer Patients : Phase III Randomised Study</t>
-  </si>
-  <si>
-    <t>Influence of Different Exercise Training Programs in Patients With Coronary Artery Disease on Cardiac and Respiratory Parameters</t>
+    <t>Detection of Circulating Endothelial Progenitor Cells (EPCs) in Peripheral Blood From Non-small Cell Lung Cancer Patients</t>
   </si>
   <si>
     <t>Interruption of the Calcineurine Inhibitors (ICN) and Introduction of Mycophenolate Mofetil (MMF) in Liver Transplant Patients With Side Effects Due to ICN: Study of the Reduction of the Risks of Rejection by Mycophenolate Mofetil Therapeutic Drug Monitoring</t>
   </si>
   <si>
-    <t>Detection of Circulating Endothelial Progenitor Cells (EPCs) in Peripheral Blood From Non-small Cell Lung Cancer Patients</t>
-  </si>
-  <si>
     <t>Evaluation of the Efficacity of Lanreotide LP 90 mg to Minimized the Lymphorrhea Post Axillary Lymphadenectomy in Breast Cancer</t>
   </si>
   <si>
@@ -478,15 +478,15 @@
     <t>Multicentre, Open Study for the Setting up of Population Pharmacokinetic Models and Bayesian Estimators for Individual Dose Adjustment of Immunosuppressive Drugs (Cyclosporine, Tacrolimus, Mycophenolate Mofetil, Everolimus) During the First Year Post-grafting in Adult Heart Transplant Recipients.</t>
   </si>
   <si>
+    <t>Pharmacokinetic Study of Capecitabine in Elderly Cancer Patient (≥75 Years)</t>
+  </si>
+  <si>
+    <t>Cytomegalovirus Resistance in Transplant Patients and Bone Marrow Recipients in the Prophylaxis Era, a French Multicentric Cohort Study</t>
+  </si>
+  <si>
     <t>Phase II Study of an Association of L-asparaginase-Methotrexate-Dexamethasone for Relapsing and/or Refractory Nasal and Nasal-type NK-T-cell Lymphoma</t>
   </si>
   <si>
-    <t>Pharmacokinetic Study of Capecitabine in Elderly Cancer Patient (≥75 Years)</t>
-  </si>
-  <si>
-    <t>Cytomegalovirus Resistance in Transplant Patients and Bone Marrow Recipients in the Prophylaxis Era, a French Multicentric Cohort Study</t>
-  </si>
-  <si>
     <t>Paracetamol and Setrons : Drug Interactions in the Management of Pain After Tonsillectomy in Children</t>
   </si>
   <si>
@@ -499,30 +499,30 @@
     <t>Impact of the PET-scan in the Diagnosis Strategy of Fever Unknown Origin or Inflammatory Syndrome in Immunocompetent Patients</t>
   </si>
   <si>
+    <t>Hemodynamic Assessment With Transpulmonary Thermodilution and Transesophageal Echocardiography in Patients With Early Septic Shock</t>
+  </si>
+  <si>
+    <t>A Prospective, Randomized, Double Blind, Placebo-controlled Phase II/III Study Evaluating the Efficacy of Rituximab in the Prevention of Relapse of Calcineurin Inhibitors Dependent Idiopathic Nephrotic Syndrome of Childhood</t>
+  </si>
+  <si>
     <t>Randomized Open Non Comparative Multicenter Phase II Study of Sequential Erlotinib With Docetaxel Versus Docetaxel Alone in Second Line of Treatment in Patients With Non Small Cell Lung Cancer After Failure of First Line Chemotherapy</t>
   </si>
   <si>
-    <t>Hemodynamic Assessment With Transpulmonary Thermodilution and Transesophageal Echocardiography in Patients With Early Septic Shock</t>
-  </si>
-  <si>
-    <t>A Prospective, Randomized, Double Blind, Placebo-controlled Phase II/III Study Evaluating the Efficacy of Rituximab in the Prevention of Relapse of Calcineurin Inhibitors Dependent Idiopathic Nephrotic Syndrome of Childhood</t>
-  </si>
-  <si>
     <t>Prospective Randomized Study of the Impact on the Autonomy of the Elderly of 75 Years of Age and Older by the Unit for Prevention, Monitoring and Analysis of Aging (UPSAV).</t>
   </si>
   <si>
+    <t>Pharmacokinetics of Micafungin in Patients of Intensive Care Units</t>
+  </si>
+  <si>
+    <t>Phase II Study Evaluating Treatment With Oral Navelbine and Cisplatin Administered Weekly and Concomitant Radiotherapy in Elderly Patients With no Operable NSCLC</t>
+  </si>
+  <si>
+    <t>Monitoring Obese Patients: Impact on the Frequency of Monitoring Weight, Quality of Life, Dietary Behavior, Physical Ability and Comorbidities</t>
+  </si>
+  <si>
     <t>IgA Nephropathy, Lymphocyte Homing and IgA Class Switch</t>
   </si>
   <si>
-    <t>Monitoring Obese Patients: Impact on the Frequency of Monitoring Weight, Quality of Life, Dietary Behavior, Physical Ability and Comorbidities</t>
-  </si>
-  <si>
-    <t>Pharmacokinetics of Micafungin in Patients of Intensive Care Units</t>
-  </si>
-  <si>
-    <t>Phase II Study Evaluating Treatment With Oral Navelbine and Cisplatin Administered Weekly and Concomitant Radiotherapy in Elderly Patients With no Operable NSCLC</t>
-  </si>
-  <si>
     <t>Feasibility of Endoscopic Pylorotomy in the Treatment of Refractory Gastroparesis, Pilot Study.</t>
   </si>
   <si>
@@ -532,25 +532,16 @@
     <t>Impact of a Technique of Massage During the First Week of Hospitalization on the Recycling of the Mobility of the Knee Further to the Installation of Knee Replacement</t>
   </si>
   <si>
+    <t>Designing a Bayesian Model of the Plasma Clearance of Calcium Edetate de Sodium, With a Limited Sampling Strategy for the Calculation of Glomerular Filtration Rate (GFR) and Validity Assessment Compared to the Renal Clearance of Inulin : DFGBay</t>
+  </si>
+  <si>
+    <t>Adapted Physical Activity Effect on Aerobic Function and Fatigue at Home in Patients With Breast Cancer Treated in Adjuvant or Neoadjuvant Phase</t>
+  </si>
+  <si>
+    <t>Position of Children During Urine Collection: Evaluation Study</t>
+  </si>
+  <si>
     <t>Search Cytomegalovirus (CMV) in Healthy Volunteers Stools Samples Selected as Potential Donor for Fecal Microbiota Transplant</t>
-  </si>
-  <si>
-    <t>Designing a Bayesian Model of the Plasma Clearance of Calcium Edetate de Sodium, With a Limited Sampling Strategy for the Calculation of Glomerular Filtration Rate (GFR) and Validity Assessment Compared to the Renal Clearance of Inulin : DFGBay</t>
-  </si>
-  <si>
-    <t>Adapted Physical Activity Effect on Aerobic Function and Fatigue at Home in Patients With Breast Cancer Treated in Adjuvant or Neoadjuvant Phase</t>
-  </si>
-  <si>
-    <t>Position of Children During Urine Collection: Evaluation Study</t>
-  </si>
-  <si>
-    <t>Comparison of the Ankle-Brachial Index Measurement Using a Specific Oscillometric Device vs. the Doppler Method</t>
-  </si>
-  <si>
-    <t>Facial Mask Tightness: A Comparative Study</t>
-  </si>
-  <si>
-    <t>Follow-up of Patients' Physical Activity in Post-hospitalization by Implementation of Systems of Active Monitoring.</t>
   </si>
   <si>
     <t>EVALUATION OF THE EFFICIENCY OF TREATMENT BY BUMETANIDE ON AUTISTIC CHILDREN WITH A KNOWN ETIOLOGY: MULTICENTER AND DOUBLE-BLIND STUDY WITH RANDOMIZED PARALLEL GROUP, AGAINST PLACEBO. 
@@ -560,93 +551,102 @@
     <t>Evaluation of Liver Grafts With FibroScan® Before Organ Retrieval in Patients With Brain Death</t>
   </si>
   <si>
+    <t>Follow-up of Patients' Physical Activity in Post-hospitalization by Implementation of Systems of Active Monitoring.</t>
+  </si>
+  <si>
     <t>Phase II Trial With Lenalidomide-Dexamethasone Combination in the Treatment of POEMS Syndrome.</t>
   </si>
   <si>
+    <t>Comparison of the Ankle-Brachial Index Measurement Using a Specific Oscillometric Device vs. the Doppler Method</t>
+  </si>
+  <si>
+    <t>Impact of a Child-Parent Preoperative Accompanying Procedure on the Anxiety of Children Aged 5 to 12 With Scheduled Surgery</t>
+  </si>
+  <si>
+    <t>Programmed Intermittent Epidural Bolus Versus Continuous Epidural Infusion for Third Trimester Medical Termination of Pregnancy Analgesia : a Randomized Study.</t>
+  </si>
+  <si>
     <t>Evaluation of the Prevalence of Functional Digestive Disorders During Primary Sjögren Gougerot Syndrome</t>
   </si>
   <si>
     <t>Efficacy and Safety of Metvix® Natural Daylight Photodynamic Therapy Versus Conventional Metvix® Photodynamic Therapy in Subject With Mild Actinic Keratoses</t>
   </si>
   <si>
-    <t>Programmed Intermittent Epidural Bolus Versus Continuous Epidural Infusion for Third Trimester Medical Termination of Pregnancy Analgesia : a Randomized Study.</t>
-  </si>
-  <si>
-    <t>Impact of a Child-Parent Preoperative Accompanying Procedure on the Anxiety of Children Aged 5 to 12 With Scheduled Surgery</t>
+    <t>Facial Mask Tightness: A Comparative Study</t>
+  </si>
+  <si>
+    <t>Effect of Bevacizumab Subconjunctival Injections on Corneal Newvessels</t>
+  </si>
+  <si>
+    <t>Interventional Multicentre Pharmacokinetic Study of Adoport® (Tacrolimus) in Patients With de Novo Kidney Transplantation</t>
+  </si>
+  <si>
+    <t>Etude de l'Impact Clinique de la télésurveillance à Domicile Par télémédecine de paramètres biométriques de la Personne âgée Polypathologique</t>
+  </si>
+  <si>
+    <t>Stool Ritual: Impact on the Number of Nights Without Stools Among Dependent Residents in Institutions for Dependent Elderly People</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics Study of Mycophenolic Acid in Patients With an Autoimmune Bullous Dermatose, Pemphigus or Cicatricial Pemphigoid.</t>
+  </si>
+  <si>
+    <t>Study of a Therapy Without Drugs, Supplementary to an Usual Treatment for the Pains Caused by Removing the Redon's Drain From a 7 to 17 Years Old Child in Pediatric Surgery.</t>
+  </si>
+  <si>
+    <t>Initial Staging of Bronchopulmonary Neoplasia: Whole-body MRI Versus Pet Scanner</t>
+  </si>
+  <si>
+    <t>Description of the Evolution of Plasma and Urinary Concentrations of Iohexol in a Cirrhotic Patient Population: "Pilot Study on 9 Patients"</t>
+  </si>
+  <si>
+    <t>Impact of Telemedicine on Avoiding Emergency Hospital Admissions and Hospitalization for Nursing Home Residents</t>
   </si>
   <si>
     <t>Using Functional Near-infrared Spectroscopy (fNIRS) in the Evaluation of Cognitive-motor Interference in Post-stroke Patients</t>
   </si>
   <si>
-    <t>Description of the Evolution of Plasma and Urinary Concentrations of Iohexol in a Cirrhotic Patient Population: "Pilot Study on 9 Patients"</t>
-  </si>
-  <si>
-    <t>Study of a Therapy Without Drugs, Supplementary to an Usual Treatment for the Pains Caused by Removing the Redon's Drain From a 7 to 17 Years Old Child in Pediatric Surgery.</t>
-  </si>
-  <si>
-    <t>Pharmacokinetics Study of Mycophenolic Acid in Patients With an Autoimmune Bullous Dermatose, Pemphigus or Cicatricial Pemphigoid.</t>
-  </si>
-  <si>
-    <t>Effect of Bevacizumab Subconjunctival Injections on Corneal Newvessels</t>
-  </si>
-  <si>
-    <t>Initial Staging of Bronchopulmonary Neoplasia: Whole-body MRI Versus Pet Scanner</t>
-  </si>
-  <si>
-    <t>Impact of Telemedicine on Avoiding Emergency Hospital Admissions and Hospitalization for Nursing Home Residents</t>
-  </si>
-  <si>
-    <t>Interventional Multicentre Pharmacokinetic Study of Adoport® (Tacrolimus) in Patients With de Novo Kidney Transplantation</t>
-  </si>
-  <si>
-    <t>Stool Ritual: Impact on the Number of Nights Without Stools Among Dependent Residents in Institutions for Dependent Elderly People</t>
-  </si>
-  <si>
-    <t>Etude de l'Impact Clinique de la télésurveillance à Domicile Par télémédecine de paramètres biométriques de la Personne âgée Polypathologique</t>
-  </si>
-  <si>
     <t>STernectOmy Repair Efficiency of a Ceramic Implant</t>
   </si>
   <si>
+    <t>Evaluation of the Analgesia Nociception Index and Videopupillometry to Predict a Child's Post-tonsillectomy Morphine Prescription</t>
+  </si>
+  <si>
+    <t>X-ray-free Protocol for Pectus Deformities Based on Magnetic Resonance 1 Imaging and a Low-cost Portable Three-dimensional Scanning Device</t>
+  </si>
+  <si>
     <t>Multicenter Phase II Trial of Nintedanib (Vargatef®) Plus Docetaxel in Second Line of Treatment in Patients With no Squamous Non Small Cell Lung Cancer Refractory to First Line Chemotherapy</t>
   </si>
   <si>
     <t>A Multicentre Open Label Phase II Study of Daratumumab in AL Amyloidosis Patients Not in VGPR or Better</t>
   </si>
   <si>
-    <t>X-ray-free Protocol for Pectus Deformities Based on Magnetic Resonance 1 Imaging and a Low-cost Portable Three-dimensional Scanning Device</t>
-  </si>
-  <si>
-    <t>Evaluation of the Analgesia Nociception Index and Videopupillometry to Predict a Child's Post-tonsillectomy Morphine Prescription</t>
+    <t>Skin Protection During Radiotherapy in Patients With Breast Cancer: A Comparative Study of Evoskin® Verus Trixéra®</t>
+  </si>
+  <si>
+    <t>Impact on Functional Status of Early Oral Nutritional Supplementation (ONS) in Amyotrophic Lateral Sclerosis (ALS) Patients</t>
   </si>
   <si>
     <t>Analytical Validation of the abioSCOPE Device With a PSP Test: Point-of-Care Precision, Sample Type Comparison and Sample Stability</t>
   </si>
   <si>
-    <t>Impact on Functional Status of Early Oral Nutritional Supplementation (ONS) in Amyotrophic Lateral Sclerosis (ALS) Patients</t>
+    <t>Pilot Study Comparing Two Techniques of Taking Care Analgesic in Patients 70 and Older, Awaiting Surgery After Extracapsular Fracture of the Proximal Femur</t>
   </si>
   <si>
     <t>Immunoglobulin Gene Rearrangement and Repair in Healthy Donors</t>
   </si>
   <si>
-    <t>Pilot Study Comparing Two Techniques of Taking Care Analgesic in Patients 70 and Older, Awaiting Surgery After Extracapsular Fracture of the Proximal Femur</t>
-  </si>
-  <si>
-    <t>Skin Protection During Radiotherapy in Patients With Breast Cancer: A Comparative Study of Evoskin® Verus Trixéra®</t>
+    <t>Diagnostic and Prognosis Value of Circulating DNA for CRC Patients' Surveillance After Curative Treatment</t>
   </si>
   <si>
     <t>Effects of an Exergame Focused on Cognitive-motor Interference on the Cognitive and Motor Capacities of Older Adults</t>
   </si>
   <si>
-    <t>Diagnostic and Prognosis Value of Circulating DNA for CRC Patients' Surveillance After Curative Treatment</t>
+    <t>Scleroderma: Description of Functional Disability Between the Dominant and Contralateral Hand, a Single-centre Descriptive Cohort.</t>
   </si>
   <si>
     <t>Analytical Validation of the abioSCOPE Device With the IVD CAPSULE PSP Test: Comparison of PSP Values Measured With Venous Whole Blood and Those Measured With Arterial Whole Blood</t>
   </si>
   <si>
-    <t>Scleroderma: Description of Functional Disability Between the Dominant and Contralateral Hand, a Single-centre Descriptive Cohort.</t>
-  </si>
-  <si>
     <t>Oxygen Consumption in Post-stroke Patients During Various Walking Activities Compared to Healthy Controls</t>
   </si>
   <si>
@@ -656,15 +656,15 @@
     <t>Study of the Therapeutic Response and Survival of Patients with Metastatic Colorectal Cancer (stage IV) and Treated According to the Guidelines of a Chemosensitivity Test, Oncogramme®</t>
   </si>
   <si>
+    <t>Efficacité d'un ocytocique seul versus ocytocique/misoprostol sur la quantité des pertes sanguines liées à la délivrance</t>
+  </si>
+  <si>
     <t>Diagnostic Accuracy of Flow Cytometry Applied to the Diagnosis of Peri-anaesthesic Reactions Induced by Neuromuscular Blockers</t>
   </si>
   <si>
     <t>Evaluation of Two Enteral Nutrition Strategies in Mechanically Ventilated Patients</t>
   </si>
   <si>
-    <t>Efficacité d'un ocytocique seul versus ocytocique/misoprostol sur la quantité des pertes sanguines liées à la délivrance</t>
-  </si>
-  <si>
     <t>Phase 2 Study Evaluating the Efficacy of Epoetin Beta (Neocormon®) For Fatigue and Quality of Life of Patients Receiving Palliative Care for a Solid Malignant Tumor</t>
   </si>
   <si>
@@ -677,30 +677,30 @@
     <t>DatScan</t>
   </si>
   <si>
+    <t>Dolastron</t>
+  </si>
+  <si>
     <t>fradius</t>
   </si>
   <si>
-    <t>Dolastron</t>
-  </si>
-  <si>
     <t>anémie</t>
   </si>
   <si>
+    <t>Cytoven</t>
+  </si>
+  <si>
+    <t>FRAXIO</t>
+  </si>
+  <si>
     <t>chondro</t>
   </si>
   <si>
-    <t>Cytoven</t>
-  </si>
-  <si>
-    <t>FRAXIO</t>
+    <t>CBNPC:PCE</t>
   </si>
   <si>
     <t>MONOCEPT</t>
   </si>
   <si>
-    <t>CBNPC:PCE</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
@@ -722,30 +722,30 @@
     <t>FUO-TEP</t>
   </si>
   <si>
+    <t>HEMOSEPSIS</t>
+  </si>
+  <si>
+    <t>NEPHRUTIX</t>
+  </si>
+  <si>
     <t>TARSEQ</t>
   </si>
   <si>
-    <t>HEMOSEPSIS</t>
-  </si>
-  <si>
-    <t>NEPHRUTIX</t>
-  </si>
-  <si>
     <t>GEROPASS</t>
   </si>
   <si>
+    <t>MI-K</t>
+  </si>
+  <si>
+    <t>RACCOSA</t>
+  </si>
+  <si>
+    <t>SUIVIOBESITE</t>
+  </si>
+  <si>
     <t>NIDOCIGA</t>
   </si>
   <si>
-    <t>SUIVIOBESITE</t>
-  </si>
-  <si>
-    <t>MI-K</t>
-  </si>
-  <si>
-    <t>RACCOSA</t>
-  </si>
-  <si>
     <t>GASTROPOP</t>
   </si>
   <si>
@@ -755,25 +755,16 @@
     <t>PTGMass</t>
   </si>
   <si>
+    <t>DFGBay</t>
+  </si>
+  <si>
+    <t>APAC</t>
+  </si>
+  <si>
+    <t>PUCES</t>
+  </si>
+  <si>
     <t>TRANSFECMV</t>
-  </si>
-  <si>
-    <t>DFGBay</t>
-  </si>
-  <si>
-    <t>APAC</t>
-  </si>
-  <si>
-    <t>PUCES</t>
-  </si>
-  <si>
-    <t>ABIOSCILLO</t>
-  </si>
-  <si>
-    <t>EMAF</t>
-  </si>
-  <si>
-    <t>TICAA'DOM</t>
   </si>
   <si>
     <t>BUMAUTEP 
@@ -783,90 +774,99 @@
     <t>FIBROSCAME</t>
   </si>
   <si>
+    <t>TICAA'DOM</t>
+  </si>
+  <si>
     <t>POEMS</t>
   </si>
   <si>
+    <t>ABIOSCILLO</t>
+  </si>
+  <si>
+    <t>I-PPOP</t>
+  </si>
+  <si>
+    <t>PCEA-IMG</t>
+  </si>
+  <si>
     <t>GASTRO-SGS</t>
   </si>
   <si>
     <t>Metvix®, Natural Daylight Photodynamic Therapy, Actinic keratosis</t>
   </si>
   <si>
-    <t>PCEA-IMG</t>
-  </si>
-  <si>
-    <t>I-PPOP</t>
+    <t>EMAF</t>
+  </si>
+  <si>
+    <t>BECONNEC</t>
+  </si>
+  <si>
+    <t>IMPAKT</t>
+  </si>
+  <si>
+    <t>e-COBAHLT</t>
+  </si>
+  <si>
+    <t>RITUELIM</t>
+  </si>
+  <si>
+    <t>PEMPA</t>
+  </si>
+  <si>
+    <t>TOUTETDOU</t>
+  </si>
+  <si>
+    <t>WISLON</t>
+  </si>
+  <si>
+    <t>DFG HEP</t>
+  </si>
+  <si>
+    <t>GERONTACCESS</t>
   </si>
   <si>
     <t>ICM-AVC</t>
   </si>
   <si>
-    <t>DFG HEP</t>
-  </si>
-  <si>
-    <t>TOUTETDOU</t>
-  </si>
-  <si>
-    <t>PEMPA</t>
-  </si>
-  <si>
-    <t>BECONNEC</t>
-  </si>
-  <si>
-    <t>WISLON</t>
-  </si>
-  <si>
-    <t>GERONTACCESS</t>
-  </si>
-  <si>
-    <t>IMPAKT</t>
-  </si>
-  <si>
-    <t>RITUELIM</t>
-  </si>
-  <si>
-    <t>e-COBAHLT</t>
-  </si>
-  <si>
     <t>STOIC</t>
   </si>
   <si>
+    <t>ENIGME</t>
+  </si>
+  <si>
     <t>REFRACT</t>
   </si>
   <si>
     <t>AMYDARA</t>
   </si>
   <si>
-    <t>ENIGME</t>
+    <t>EVOSKIN</t>
+  </si>
+  <si>
+    <t>NUTRALS</t>
   </si>
   <si>
     <t>AB-PSP-005</t>
   </si>
   <si>
-    <t>NUTRALS</t>
+    <t>ALGOFRACT</t>
   </si>
   <si>
     <t>R2IGH</t>
   </si>
   <si>
-    <t>ALGOFRACT</t>
-  </si>
-  <si>
-    <t>EVOSKIN</t>
+    <t>ADNCirc</t>
   </si>
   <si>
     <t>INCOME</t>
   </si>
   <si>
-    <t>ADNCirc</t>
+    <t>SCLERO-HAND</t>
   </si>
   <si>
     <t>AB-PSP-006</t>
   </si>
   <si>
-    <t>SCLERO-HAND</t>
-  </si>
-  <si>
     <t>STROXCO</t>
   </si>
   <si>
@@ -876,10 +876,10 @@
     <t>ONCOGRAM</t>
   </si>
   <si>
+    <t>GYMISO</t>
+  </si>
+  <si>
     <t>CYPREANE</t>
-  </si>
-  <si>
-    <t>GYMISO</t>
   </si>
   <si>
     <t>DRUG</t>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -1358,11 +1358,8 @@
       <c r="G4" t="s">
         <v>135</v>
       </c>
-      <c r="H4" t="s">
-        <v>218</v>
-      </c>
       <c r="I4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1381,16 +1378,19 @@
       <c r="G5" t="s">
         <v>136</v>
       </c>
+      <c r="H5" t="s">
+        <v>218</v>
+      </c>
       <c r="I5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1470,10 +1470,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1488,15 +1488,15 @@
         <v>220</v>
       </c>
       <c r="I10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1511,7 +1511,7 @@
         <v>221</v>
       </c>
       <c r="I11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1559,10 +1559,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1573,11 +1573,8 @@
       <c r="G14" t="s">
         <v>145</v>
       </c>
-      <c r="H14" t="s">
-        <v>223</v>
-      </c>
       <c r="I14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1597,7 +1594,7 @@
         <v>146</v>
       </c>
       <c r="H15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I15" t="s">
         <v>291</v>
@@ -1605,10 +1602,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1619,8 +1616,11 @@
       <c r="G16" t="s">
         <v>147</v>
       </c>
+      <c r="H16" t="s">
+        <v>224</v>
+      </c>
       <c r="I16" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1643,7 +1643,7 @@
         <v>225</v>
       </c>
       <c r="I17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1666,7 +1666,7 @@
         <v>226</v>
       </c>
       <c r="I18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1689,7 +1689,7 @@
         <v>227</v>
       </c>
       <c r="I19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1763,10 +1763,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -1776,6 +1776,9 @@
       </c>
       <c r="G23" t="s">
         <v>154</v>
+      </c>
+      <c r="H23" t="s">
+        <v>230</v>
       </c>
       <c r="I23" t="s">
         <v>288</v>
@@ -1798,18 +1801,18 @@
         <v>155</v>
       </c>
       <c r="H24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I24" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -1820,11 +1823,8 @@
       <c r="G25" t="s">
         <v>156</v>
       </c>
-      <c r="H25" t="s">
-        <v>231</v>
-      </c>
       <c r="I25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1924,10 +1924,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -1942,7 +1942,7 @@
         <v>235</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1955,6 +1955,9 @@
       <c r="C31" t="s">
         <v>46</v>
       </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
       <c r="F31" t="s">
         <v>122</v>
       </c>
@@ -1965,22 +1968,19 @@
         <v>236</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
-      <c r="D32" t="s">
-        <v>103</v>
-      </c>
       <c r="F32" t="s">
         <v>122</v>
       </c>
@@ -2042,14 +2042,17 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
       <c r="F35" t="s">
         <v>124</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>240</v>
       </c>
       <c r="I35" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2088,17 +2091,14 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
-      <c r="D37" t="s">
-        <v>104</v>
-      </c>
       <c r="F37" t="s">
         <v>124</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>242</v>
       </c>
       <c r="I37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2204,15 +2204,15 @@
         <v>246</v>
       </c>
       <c r="I41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -2227,15 +2227,15 @@
         <v>247</v>
       </c>
       <c r="I42" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -2278,13 +2278,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>106</v>
       </c>
       <c r="F45" t="s">
         <v>126</v>
@@ -2295,9 +2295,6 @@
       <c r="H45" t="s">
         <v>250</v>
       </c>
-      <c r="I45" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
@@ -2307,7 +2304,7 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
         <v>126</v>
@@ -2319,7 +2316,7 @@
         <v>251</v>
       </c>
       <c r="I46" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2330,7 +2327,7 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" t="s">
         <v>126</v>
@@ -2347,13 +2344,13 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
       </c>
       <c r="F48" t="s">
         <v>126</v>
@@ -2364,6 +2361,9 @@
       <c r="H48" t="s">
         <v>253</v>
       </c>
+      <c r="I48" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
@@ -2385,7 +2385,7 @@
         <v>254</v>
       </c>
       <c r="I49" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2408,15 +2408,15 @@
         <v>255</v>
       </c>
       <c r="I50" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>65</v>
@@ -2431,22 +2431,19 @@
         <v>256</v>
       </c>
       <c r="I51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
         <v>66</v>
       </c>
-      <c r="D52" t="s">
-        <v>107</v>
-      </c>
       <c r="F52" t="s">
         <v>126</v>
       </c>
@@ -2457,19 +2454,22 @@
         <v>257</v>
       </c>
       <c r="I52" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>67</v>
       </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
       <c r="F53" t="s">
         <v>126</v>
       </c>
@@ -2503,19 +2503,22 @@
         <v>259</v>
       </c>
       <c r="I54" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
       </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
       <c r="F55" t="s">
         <v>127</v>
       </c>
@@ -2526,22 +2529,19 @@
         <v>260</v>
       </c>
       <c r="I55" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>70</v>
       </c>
-      <c r="D56" t="s">
-        <v>108</v>
-      </c>
       <c r="F56" t="s">
         <v>127</v>
       </c>
@@ -2575,15 +2575,15 @@
         <v>262</v>
       </c>
       <c r="I57" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>72</v>
@@ -2598,22 +2598,19 @@
         <v>263</v>
       </c>
       <c r="I58" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
         <v>73</v>
       </c>
-      <c r="D59" t="s">
-        <v>109</v>
-      </c>
       <c r="F59" t="s">
         <v>127</v>
       </c>
@@ -2647,7 +2644,7 @@
         <v>265</v>
       </c>
       <c r="I60" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2670,19 +2667,22 @@
         <v>266</v>
       </c>
       <c r="I61" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
         <v>76</v>
       </c>
+      <c r="D62" t="s">
+        <v>109</v>
+      </c>
       <c r="F62" t="s">
         <v>127</v>
       </c>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>77</v>
@@ -2739,7 +2739,7 @@
         <v>269</v>
       </c>
       <c r="I64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2767,17 +2767,14 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
       </c>
-      <c r="D66" t="s">
-        <v>110</v>
-      </c>
       <c r="F66" t="s">
         <v>128</v>
       </c>
@@ -2788,65 +2785,68 @@
         <v>271</v>
       </c>
       <c r="I66" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>81</v>
       </c>
-      <c r="D67" t="s">
-        <v>111</v>
-      </c>
       <c r="F67" t="s">
         <v>128</v>
       </c>
       <c r="G67" t="s">
         <v>198</v>
       </c>
-      <c r="H67" t="s">
-        <v>272</v>
-      </c>
       <c r="I67" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
         <v>82</v>
       </c>
+      <c r="D68" t="s">
+        <v>110</v>
+      </c>
       <c r="F68" t="s">
         <v>128</v>
       </c>
       <c r="G68" t="s">
         <v>199</v>
       </c>
+      <c r="H68" t="s">
+        <v>272</v>
+      </c>
       <c r="I68" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
         <v>83</v>
       </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
       <c r="F69" t="s">
         <v>128</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>273</v>
       </c>
       <c r="I69" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2880,7 +2880,7 @@
         <v>274</v>
       </c>
       <c r="I70" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2926,7 +2926,7 @@
         <v>276</v>
       </c>
       <c r="I72" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2972,7 +2972,7 @@
         <v>278</v>
       </c>
       <c r="I74" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2995,7 +2995,7 @@
         <v>279</v>
       </c>
       <c r="I75" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3018,7 +3018,7 @@
         <v>280</v>
       </c>
       <c r="I76" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3041,7 +3041,7 @@
         <v>281</v>
       </c>
       <c r="I77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3064,7 +3064,7 @@
         <v>282</v>
       </c>
       <c r="I78" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3143,8 +3143,8 @@
       <c r="B82" t="s">
         <v>14</v>
       </c>
-      <c r="C82" t="s">
-        <v>96</v>
+      <c r="D82" t="s">
+        <v>112</v>
       </c>
       <c r="G82" t="s">
         <v>213</v>
@@ -3152,9 +3152,6 @@
       <c r="H82" t="s">
         <v>286</v>
       </c>
-      <c r="I82" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
@@ -3164,13 +3161,16 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G83" t="s">
         <v>214</v>
       </c>
+      <c r="H83" t="s">
+        <v>287</v>
+      </c>
       <c r="I83" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3180,14 +3180,14 @@
       <c r="B84" t="s">
         <v>14</v>
       </c>
-      <c r="D84" t="s">
-        <v>112</v>
+      <c r="C84" t="s">
+        <v>97</v>
       </c>
       <c r="G84" t="s">
         <v>215</v>
       </c>
-      <c r="H84" t="s">
-        <v>287</v>
+      <c r="I84" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:9">

--- a/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
+++ b/publipostage2/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="301">
   <si>
     <t>statut</t>
   </si>
@@ -55,45 +55,45 @@
     <t>1</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00199576</t>
   </si>
   <si>
+    <t>NCT00199615</t>
+  </si>
+  <si>
     <t>NCT00344526</t>
   </si>
   <si>
-    <t>NCT00199615</t>
+    <t>NCT00455676</t>
   </si>
   <si>
     <t>NCT00199719</t>
   </si>
   <si>
-    <t>NCT00455676</t>
-  </si>
-  <si>
     <t>NCT00199589</t>
   </si>
   <si>
     <t>NCT00199758</t>
   </si>
   <si>
+    <t>NCT00820326</t>
+  </si>
+  <si>
     <t>NCT00820937</t>
   </si>
   <si>
-    <t>NCT00820326</t>
-  </si>
-  <si>
     <t>NCT00492492</t>
   </si>
   <si>
@@ -103,6 +103,9 @@
     <t>NCT00284778</t>
   </si>
   <si>
+    <t>NCT00797537</t>
+  </si>
+  <si>
     <t>NCT00199602</t>
   </si>
   <si>
@@ -112,19 +115,19 @@
     <t>NCT00754533</t>
   </si>
   <si>
-    <t>NCT00797537</t>
+    <t>NCT00630695</t>
+  </si>
+  <si>
+    <t>NCT00551798</t>
+  </si>
+  <si>
+    <t>NCT00456235</t>
   </si>
   <si>
     <t>NCT00826683</t>
   </si>
   <si>
-    <t>NCT00456235</t>
-  </si>
-  <si>
-    <t>NCT00630695</t>
-  </si>
-  <si>
-    <t>NCT00551798</t>
+    <t>NCT01432977</t>
   </si>
   <si>
     <t>NCT00812786</t>
@@ -133,15 +136,12 @@
     <t>NCT00812864</t>
   </si>
   <si>
+    <t>NCT00283985</t>
+  </si>
+  <si>
     <t>NCT01008540</t>
   </si>
   <si>
-    <t>NCT00283985</t>
-  </si>
-  <si>
-    <t>NCT01432977</t>
-  </si>
-  <si>
     <t>NCT01659190</t>
   </si>
   <si>
@@ -151,156 +151,159 @@
     <t>NCT01200771</t>
   </si>
   <si>
+    <t>NCT01268033</t>
+  </si>
+  <si>
     <t>NCT01188993</t>
   </si>
   <si>
-    <t>NCT01268033</t>
-  </si>
-  <si>
     <t>NCT01350817</t>
   </si>
   <si>
     <t>NCT01369797</t>
   </si>
   <si>
+    <t>NCT02374866</t>
+  </si>
+  <si>
+    <t>NCT01775527</t>
+  </si>
+  <si>
+    <t>NCT01029678</t>
+  </si>
+  <si>
     <t>NCT02164890</t>
   </si>
   <si>
-    <t>NCT01029678</t>
-  </si>
-  <si>
-    <t>NCT02374866</t>
-  </si>
-  <si>
-    <t>NCT01775527</t>
-  </si>
-  <si>
     <t>NCT02779920</t>
   </si>
   <si>
+    <t>NCT01862822</t>
+  </si>
+  <si>
+    <t>NCT01795612</t>
+  </si>
+  <si>
+    <t>NCT02694484</t>
+  </si>
+  <si>
+    <t>NCT02278627</t>
+  </si>
+  <si>
+    <t>NCT02300376</t>
+  </si>
+  <si>
     <t>NCT02186951</t>
   </si>
   <si>
-    <t>NCT02278627</t>
-  </si>
-  <si>
-    <t>NCT02300376</t>
-  </si>
-  <si>
-    <t>NCT01795612</t>
-  </si>
-  <si>
-    <t>NCT01862822</t>
-  </si>
-  <si>
-    <t>NCT02694484</t>
+    <t>NCT02563821</t>
+  </si>
+  <si>
+    <t>NCT03205397</t>
+  </si>
+  <si>
+    <t>NCT01822938</t>
   </si>
   <si>
     <t>NCT02460250</t>
   </si>
   <si>
-    <t>NCT01822938</t>
+    <t>NCT02778984</t>
   </si>
   <si>
     <t>NCT01639898</t>
   </si>
   <si>
+    <t>NCT02373371</t>
+  </si>
+  <si>
+    <t>NCT03157011</t>
+  </si>
+  <si>
     <t>NCT03511612</t>
   </si>
   <si>
-    <t>NCT03205397</t>
-  </si>
-  <si>
-    <t>NCT02563821</t>
-  </si>
-  <si>
-    <t>NCT03157011</t>
-  </si>
-  <si>
-    <t>NCT02373371</t>
-  </si>
-  <si>
-    <t>NCT02778984</t>
+    <t>NCT03118401</t>
+  </si>
+  <si>
+    <t>NCT02155686</t>
+  </si>
+  <si>
+    <t>NCT02047591</t>
   </si>
   <si>
     <t>NCT01501760</t>
   </si>
   <si>
+    <t>NCT03559283</t>
+  </si>
+  <si>
+    <t>NCT03769597</t>
+  </si>
+  <si>
+    <t>NCT02716051</t>
+  </si>
+  <si>
+    <t>NCT02993133</t>
+  </si>
+  <si>
+    <t>NCT02683590</t>
+  </si>
+  <si>
     <t>NCT03076151</t>
   </si>
   <si>
-    <t>NCT02155686</t>
-  </si>
-  <si>
-    <t>NCT03118401</t>
-  </si>
-  <si>
-    <t>NCT02993133</t>
-  </si>
-  <si>
-    <t>NCT02047591</t>
-  </si>
-  <si>
-    <t>NCT02716051</t>
-  </si>
-  <si>
-    <t>NCT03769597</t>
-  </si>
-  <si>
     <t>NCT02816177</t>
   </si>
   <si>
-    <t>NCT03559283</t>
-  </si>
-  <si>
-    <t>NCT02683590</t>
+    <t>NCT02531737</t>
+  </si>
+  <si>
+    <t>NCT04885387</t>
   </si>
   <si>
     <t>NCT03698565</t>
   </si>
   <si>
-    <t>NCT04885387</t>
-  </si>
-  <si>
-    <t>NCT02531737</t>
-  </si>
-  <si>
     <t>NCT02816476</t>
   </si>
   <si>
+    <t>NCT02152449</t>
+  </si>
+  <si>
+    <t>NCT04797117</t>
+  </si>
+  <si>
     <t>NCT02334345</t>
   </si>
   <si>
-    <t>NCT02152449</t>
-  </si>
-  <si>
-    <t>NCT04797117</t>
+    <t>NCT04889573</t>
   </si>
   <si>
     <t>NCT03185663</t>
   </si>
   <si>
-    <t>NCT04889573</t>
-  </si>
-  <si>
     <t>NCT02813928</t>
   </si>
   <si>
+    <t>NCT05171114</t>
+  </si>
+  <si>
+    <t>NCT05540210</t>
+  </si>
+  <si>
     <t>NCT04803799</t>
   </si>
   <si>
-    <t>NCT05171114</t>
-  </si>
-  <si>
-    <t>NCT05540210</t>
-  </si>
-  <si>
     <t>NCT05477238</t>
   </si>
   <si>
     <t>NCT05545566</t>
   </si>
   <si>
+    <t>NCT06045234</t>
+  </si>
+  <si>
     <t>NCT03133273</t>
   </si>
   <si>
@@ -418,30 +421,30 @@
     <t>Prevention of Post-Extubation Laryngeal Edema With Intravenous Corticosteroids: a Prospective, Double-Blind, Placebo-Controlled Trial.</t>
   </si>
   <si>
+    <t>Follow-up of Patients With Curative-Intent Surgical Resection for NSCLC : CT Scanning Versus 18 FDG Imaging.</t>
+  </si>
+  <si>
     <t>Autologous Stem Cell Transplantation (ASCT) Versus Oral Melphalan and High-Dose Dexamethasone in Patients With AL (Primary)Amyloidosis. A Prospective Randomized Trial .</t>
   </si>
   <si>
-    <t>Follow-up of Patients With Curative-Intent Surgical Resection for NSCLC : CT Scanning Versus 18 FDG Imaging.</t>
+    <t>Chevron Osteotomy Versus SCARF Osteotomy in the Treatment of Hallux Valgus</t>
   </si>
   <si>
     <t>Study of the Pharmacokinetic Action of Amantadine and Ribavirin in Chronic Hepatitis C Non 2 -3 Genotype naïve Patients Treated With a 12 Weeks Bitherapy of Peginterferon Alpha 2a-Ribavirin, and Followed by a Tritherapy of Peginterferon Alpha 2a-Ribavirin-Amantadine for 36 Weeks</t>
   </si>
   <si>
-    <t>Chevron Osteotomy Versus SCARF Osteotomy in the Treatment of Hallux Valgus</t>
-  </si>
-  <si>
     <t>Treatment of Spastic Equinovarus Foot After Stroke. Efficacy: Association Between Ankle Foot Orthosis and Botulinum Toxin A (BTA) Injection</t>
   </si>
   <si>
     <t>A Randomized Phase II Trial of Early Change of a Chemotherapeutic Doublet Versus Four Cycles of Chemotherapy in Advanced Non Small Cell Lung Cancer.</t>
   </si>
   <si>
+    <t>A Randomized, Double-Blind, Placebo-Controlled, Study of Efficacy of DOLASETRON in Patients With Fibromyalgia</t>
+  </si>
+  <si>
     <t>Interest of the Combination of the DaTSCAN Scintigraphy and MRI Scan in the Differential Diagnosis of Lewy Body Dementia From Alzheimer Disease in Patients With Hallucinations</t>
   </si>
   <si>
-    <t>A Randomized, Double-Blind, Placebo-Controlled, Study of Efficacy of DOLASETRON in Patients With Fibromyalgia</t>
-  </si>
-  <si>
     <t>Treatement of Extension Fractures of the Distal Radius : Prospective Randomized Postoperative Comparison Between Trans-styloid and Intrafical Pinning on the One Side and Volar Fixed-angle Plating on the Other Side.</t>
   </si>
   <si>
@@ -451,6 +454,9 @@
     <t>A Randomized Cost-minimization Trial Comparing Pemetrexed (Alimta®) Versus Docetaxel (Taxotere®) as Second Line Treatment in Advanced Non Small Cell Lung Cancer (NSCLC): Study 05-06 of Groupe Français de Pneumo-Cancérologie (GFPC).</t>
   </si>
   <si>
+    <t>Concordance Entre l'échographie du Genou et la Radiographie Standard Dans la détection Des Calcifications Dans le Cadre de la Chondrocalcinose Articulaire</t>
+  </si>
+  <si>
     <t>Prophylaxis of Thrombosis With Implantable Devices for Central Venous Access in Cancer Patients : Phase III Randomised Study</t>
   </si>
   <si>
@@ -460,19 +466,19 @@
     <t>Influence of Different Exercise Training Programs in Patients With Coronary Artery Disease on Cardiac and Respiratory Parameters</t>
   </si>
   <si>
-    <t>Concordance Entre l'échographie du Genou et la Radiographie Standard Dans la détection Des Calcifications Dans le Cadre de la Chondrocalcinose Articulaire</t>
+    <t>Evaluation of the Efficacity of Lanreotide LP 90 mg to Minimized the Lymphorrhea Post Axillary Lymphadenectomy in Breast Cancer</t>
+  </si>
+  <si>
+    <t>Prediction of the Response to Chemotherapy by Tomoscintigraphie the MIBI in the Balance Sheet Pre Hodgkin's Disease and Lymphoma Malins High Grade</t>
+  </si>
+  <si>
+    <t>Interruption of the Calcineurine Inhibitors (ICN) and Introduction of Mycophenolate Mofetil (MMF) in Liver Transplant Patients With Side Effects Due to ICN: Study of the Reduction of the Risks of Rejection by Mycophenolate Mofetil Therapeutic Drug Monitoring</t>
   </si>
   <si>
     <t>Detection of Circulating Endothelial Progenitor Cells (EPCs) in Peripheral Blood From Non-small Cell Lung Cancer Patients</t>
   </si>
   <si>
-    <t>Interruption of the Calcineurine Inhibitors (ICN) and Introduction of Mycophenolate Mofetil (MMF) in Liver Transplant Patients With Side Effects Due to ICN: Study of the Reduction of the Risks of Rejection by Mycophenolate Mofetil Therapeutic Drug Monitoring</t>
-  </si>
-  <si>
-    <t>Evaluation of the Efficacity of Lanreotide LP 90 mg to Minimized the Lymphorrhea Post Axillary Lymphadenectomy in Breast Cancer</t>
-  </si>
-  <si>
-    <t>Prediction of the Response to Chemotherapy by Tomoscintigraphie the MIBI in the Balance Sheet Pre Hodgkin's Disease and Lymphoma Malins High Grade</t>
+    <t>Paracetamol and Setrons : Drug Interactions in the Management of Pain After Tonsillectomy in Children</t>
   </si>
   <si>
     <t>Multicentre, Open Study for the Setting up of Population Pharmacokinetic Models and Bayesian Estimators for Individual Dose Adjustment of Immunosuppressive Drugs (Cyclosporine, Tacrolimus, Mycophenolate Mofetil, Everolimus) During the First Year Post-grafting in Adult Heart Transplant Recipients.</t>
@@ -481,15 +487,12 @@
     <t>Pharmacokinetic Study of Capecitabine in Elderly Cancer Patient (≥75 Years)</t>
   </si>
   <si>
+    <t>Phase II Study of an Association of L-asparaginase-Methotrexate-Dexamethasone for Relapsing and/or Refractory Nasal and Nasal-type NK-T-cell Lymphoma</t>
+  </si>
+  <si>
     <t>Cytomegalovirus Resistance in Transplant Patients and Bone Marrow Recipients in the Prophylaxis Era, a French Multicentric Cohort Study</t>
   </si>
   <si>
-    <t>Phase II Study of an Association of L-asparaginase-Methotrexate-Dexamethasone for Relapsing and/or Refractory Nasal and Nasal-type NK-T-cell Lymphoma</t>
-  </si>
-  <si>
-    <t>Paracetamol and Setrons : Drug Interactions in the Management of Pain After Tonsillectomy in Children</t>
-  </si>
-  <si>
     <t>The Painful Real-life Experience of the Child of Less Than Three Years During the Removal of the Collecting Bags in the Pediatric Urgency: What Strategy of Coverage?</t>
   </si>
   <si>
@@ -499,169 +502,172 @@
     <t>Impact of the PET-scan in the Diagnosis Strategy of Fever Unknown Origin or Inflammatory Syndrome in Immunocompetent Patients</t>
   </si>
   <si>
+    <t>A Prospective, Randomized, Double Blind, Placebo-controlled Phase II/III Study Evaluating the Efficacy of Rituximab in the Prevention of Relapse of Calcineurin Inhibitors Dependent Idiopathic Nephrotic Syndrome of Childhood</t>
+  </si>
+  <si>
     <t>Hemodynamic Assessment With Transpulmonary Thermodilution and Transesophageal Echocardiography in Patients With Early Septic Shock</t>
   </si>
   <si>
-    <t>A Prospective, Randomized, Double Blind, Placebo-controlled Phase II/III Study Evaluating the Efficacy of Rituximab in the Prevention of Relapse of Calcineurin Inhibitors Dependent Idiopathic Nephrotic Syndrome of Childhood</t>
-  </si>
-  <si>
     <t>Randomized Open Non Comparative Multicenter Phase II Study of Sequential Erlotinib With Docetaxel Versus Docetaxel Alone in Second Line of Treatment in Patients With Non Small Cell Lung Cancer After Failure of First Line Chemotherapy</t>
   </si>
   <si>
     <t>Prospective Randomized Study of the Impact on the Autonomy of the Elderly of 75 Years of Age and Older by the Unit for Prevention, Monitoring and Analysis of Aging (UPSAV).</t>
   </si>
   <si>
+    <t>Monitoring Obese Patients: Impact on the Frequency of Monitoring Weight, Quality of Life, Dietary Behavior, Physical Ability and Comorbidities</t>
+  </si>
+  <si>
+    <t>IgA Nephropathy, Lymphocyte Homing and IgA Class Switch</t>
+  </si>
+  <si>
+    <t>Phase II Study Evaluating Treatment With Oral Navelbine and Cisplatin Administered Weekly and Concomitant Radiotherapy in Elderly Patients With no Operable NSCLC</t>
+  </si>
+  <si>
     <t>Pharmacokinetics of Micafungin in Patients of Intensive Care Units</t>
   </si>
   <si>
-    <t>Phase II Study Evaluating Treatment With Oral Navelbine and Cisplatin Administered Weekly and Concomitant Radiotherapy in Elderly Patients With no Operable NSCLC</t>
-  </si>
-  <si>
-    <t>Monitoring Obese Patients: Impact on the Frequency of Monitoring Weight, Quality of Life, Dietary Behavior, Physical Ability and Comorbidities</t>
-  </si>
-  <si>
-    <t>IgA Nephropathy, Lymphocyte Homing and IgA Class Switch</t>
-  </si>
-  <si>
     <t>Feasibility of Endoscopic Pylorotomy in the Treatment of Refractory Gastroparesis, Pilot Study.</t>
   </si>
   <si>
+    <t>Position of Children During Urine Collection: Evaluation Study</t>
+  </si>
+  <si>
+    <t>Adapted Physical Activity Effect on Aerobic Function and Fatigue at Home in Patients With Breast Cancer Treated in Adjuvant or Neoadjuvant Phase</t>
+  </si>
+  <si>
+    <t>Search Cytomegalovirus (CMV) in Healthy Volunteers Stools Samples Selected as Potential Donor for Fecal Microbiota Transplant</t>
+  </si>
+  <si>
+    <t>Impact of a Technique of Massage During the First Week of Hospitalization on the Recycling of the Mobility of the Knee Further to the Installation of Knee Replacement</t>
+  </si>
+  <si>
+    <t>Designing a Bayesian Model of the Plasma Clearance of Calcium Edetate de Sodium, With a Limited Sampling Strategy for the Calculation of Glomerular Filtration Rate (GFR) and Validity Assessment Compared to the Renal Clearance of Inulin : DFGBay</t>
+  </si>
+  <si>
     <t>Prevention of Early Ventilator-associated Pneumonia With Antibiotic Therapy in Patients Treated With Mild Therapeutic Hypothermia After Cardiac Arrest.</t>
   </si>
   <si>
-    <t>Impact of a Technique of Massage During the First Week of Hospitalization on the Recycling of the Mobility of the Knee Further to the Installation of Knee Replacement</t>
-  </si>
-  <si>
-    <t>Designing a Bayesian Model of the Plasma Clearance of Calcium Edetate de Sodium, With a Limited Sampling Strategy for the Calculation of Glomerular Filtration Rate (GFR) and Validity Assessment Compared to the Renal Clearance of Inulin : DFGBay</t>
-  </si>
-  <si>
-    <t>Adapted Physical Activity Effect on Aerobic Function and Fatigue at Home in Patients With Breast Cancer Treated in Adjuvant or Neoadjuvant Phase</t>
-  </si>
-  <si>
-    <t>Position of Children During Urine Collection: Evaluation Study</t>
-  </si>
-  <si>
-    <t>Search Cytomegalovirus (CMV) in Healthy Volunteers Stools Samples Selected as Potential Donor for Fecal Microbiota Transplant</t>
+    <t>Programmed Intermittent Epidural Bolus Versus Continuous Epidural Infusion for Third Trimester Medical Termination of Pregnancy Analgesia : a Randomized Study.</t>
+  </si>
+  <si>
+    <t>Impact of a Child-Parent Preoperative Accompanying Procedure on the Anxiety of Children Aged 5 to 12 With Scheduled Surgery</t>
+  </si>
+  <si>
+    <t>Follow-up of Patients' Physical Activity in Post-hospitalization by Implementation of Systems of Active Monitoring.</t>
+  </si>
+  <si>
+    <t>Evaluation of Liver Grafts With FibroScan® Before Organ Retrieval in Patients With Brain Death</t>
+  </si>
+  <si>
+    <t>Facial Mask Tightness: A Comparative Study</t>
+  </si>
+  <si>
+    <t>Phase II Trial With Lenalidomide-Dexamethasone Combination in the Treatment of POEMS Syndrome.</t>
   </si>
   <si>
     <t>EVALUATION OF THE EFFICIENCY OF TREATMENT BY BUMETANIDE ON AUTISTIC CHILDREN WITH A KNOWN ETIOLOGY: MULTICENTER AND DOUBLE-BLIND STUDY WITH RANDOMIZED PARALLEL GROUP, AGAINST PLACEBO. 
  Evaluation de l'efficacité d'un traitement par bumétanide chez les enfants autistes avec une étiologie connue : étude multicentrique randomisée en groupes parallèles et double aveugle contre placebo.</t>
   </si>
   <si>
-    <t>Evaluation of Liver Grafts With FibroScan® Before Organ Retrieval in Patients With Brain Death</t>
-  </si>
-  <si>
-    <t>Follow-up of Patients' Physical Activity in Post-hospitalization by Implementation of Systems of Active Monitoring.</t>
-  </si>
-  <si>
-    <t>Phase II Trial With Lenalidomide-Dexamethasone Combination in the Treatment of POEMS Syndrome.</t>
+    <t>Efficacy and Safety of Metvix® Natural Daylight Photodynamic Therapy Versus Conventional Metvix® Photodynamic Therapy in Subject With Mild Actinic Keratoses</t>
+  </si>
+  <si>
+    <t>Evaluation of the Prevalence of Functional Digestive Disorders During Primary Sjögren Gougerot Syndrome</t>
   </si>
   <si>
     <t>Comparison of the Ankle-Brachial Index Measurement Using a Specific Oscillometric Device vs. the Doppler Method</t>
   </si>
   <si>
-    <t>Impact of a Child-Parent Preoperative Accompanying Procedure on the Anxiety of Children Aged 5 to 12 With Scheduled Surgery</t>
-  </si>
-  <si>
-    <t>Programmed Intermittent Epidural Bolus Versus Continuous Epidural Infusion for Third Trimester Medical Termination of Pregnancy Analgesia : a Randomized Study.</t>
-  </si>
-  <si>
-    <t>Evaluation of the Prevalence of Functional Digestive Disorders During Primary Sjögren Gougerot Syndrome</t>
-  </si>
-  <si>
-    <t>Efficacy and Safety of Metvix® Natural Daylight Photodynamic Therapy Versus Conventional Metvix® Photodynamic Therapy in Subject With Mild Actinic Keratoses</t>
-  </si>
-  <si>
-    <t>Facial Mask Tightness: A Comparative Study</t>
+    <t>Stool Ritual: Impact on the Number of Nights Without Stools Among Dependent Residents in Institutions for Dependent Elderly People</t>
+  </si>
+  <si>
+    <t>Etude de l'Impact Clinique de la télésurveillance à Domicile Par télémédecine de paramètres biométriques de la Personne âgée Polypathologique</t>
+  </si>
+  <si>
+    <t>Study of a Therapy Without Drugs, Supplementary to an Usual Treatment for the Pains Caused by Removing the Redon's Drain From a 7 to 17 Years Old Child in Pediatric Surgery.</t>
   </si>
   <si>
     <t>Effect of Bevacizumab Subconjunctival Injections on Corneal Newvessels</t>
   </si>
   <si>
+    <t>Using Functional Near-infrared Spectroscopy (fNIRS) in the Evaluation of Cognitive-motor Interference in Post-stroke Patients</t>
+  </si>
+  <si>
+    <t>Description of the Evolution of Plasma and Urinary Concentrations of Iohexol in a Cirrhotic Patient Population: "Pilot Study on 9 Patients"</t>
+  </si>
+  <si>
+    <t>Initial Staging of Bronchopulmonary Neoplasia: Whole-body MRI Versus Pet Scanner</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics Study of Mycophenolic Acid in Patients With an Autoimmune Bullous Dermatose, Pemphigus or Cicatricial Pemphigoid.</t>
+  </si>
+  <si>
+    <t>STernectOmy Repair Efficiency of a Ceramic Implant</t>
+  </si>
+  <si>
     <t>Interventional Multicentre Pharmacokinetic Study of Adoport® (Tacrolimus) in Patients With de Novo Kidney Transplantation</t>
   </si>
   <si>
-    <t>Etude de l'Impact Clinique de la télésurveillance à Domicile Par télémédecine de paramètres biométriques de la Personne âgée Polypathologique</t>
-  </si>
-  <si>
-    <t>Stool Ritual: Impact on the Number of Nights Without Stools Among Dependent Residents in Institutions for Dependent Elderly People</t>
-  </si>
-  <si>
-    <t>Pharmacokinetics Study of Mycophenolic Acid in Patients With an Autoimmune Bullous Dermatose, Pemphigus or Cicatricial Pemphigoid.</t>
-  </si>
-  <si>
-    <t>Study of a Therapy Without Drugs, Supplementary to an Usual Treatment for the Pains Caused by Removing the Redon's Drain From a 7 to 17 Years Old Child in Pediatric Surgery.</t>
-  </si>
-  <si>
-    <t>Initial Staging of Bronchopulmonary Neoplasia: Whole-body MRI Versus Pet Scanner</t>
-  </si>
-  <si>
-    <t>Description of the Evolution of Plasma and Urinary Concentrations of Iohexol in a Cirrhotic Patient Population: "Pilot Study on 9 Patients"</t>
-  </si>
-  <si>
     <t>Impact of Telemedicine on Avoiding Emergency Hospital Admissions and Hospitalization for Nursing Home Residents</t>
   </si>
   <si>
-    <t>Using Functional Near-infrared Spectroscopy (fNIRS) in the Evaluation of Cognitive-motor Interference in Post-stroke Patients</t>
-  </si>
-  <si>
-    <t>STernectOmy Repair Efficiency of a Ceramic Implant</t>
+    <t>Multicenter Phase II Trial of Nintedanib (Vargatef®) Plus Docetaxel in Second Line of Treatment in Patients With no Squamous Non Small Cell Lung Cancer Refractory to First Line Chemotherapy</t>
+  </si>
+  <si>
+    <t>X-ray-free Protocol for Pectus Deformities Based on Magnetic Resonance 1 Imaging and a Low-cost Portable Three-dimensional Scanning Device</t>
   </si>
   <si>
     <t>Evaluation of the Analgesia Nociception Index and Videopupillometry to Predict a Child's Post-tonsillectomy Morphine Prescription</t>
   </si>
   <si>
-    <t>X-ray-free Protocol for Pectus Deformities Based on Magnetic Resonance 1 Imaging and a Low-cost Portable Three-dimensional Scanning Device</t>
-  </si>
-  <si>
-    <t>Multicenter Phase II Trial of Nintedanib (Vargatef®) Plus Docetaxel in Second Line of Treatment in Patients With no Squamous Non Small Cell Lung Cancer Refractory to First Line Chemotherapy</t>
-  </si>
-  <si>
     <t>A Multicentre Open Label Phase II Study of Daratumumab in AL Amyloidosis Patients Not in VGPR or Better</t>
   </si>
   <si>
+    <t>Impact on Functional Status of Early Oral Nutritional Supplementation (ONS) in Amyotrophic Lateral Sclerosis (ALS) Patients</t>
+  </si>
+  <si>
+    <t>Analytical Validation of the abioSCOPE Device With a PSP Test: Point-of-Care Precision, Sample Type Comparison and Sample Stability</t>
+  </si>
+  <si>
     <t>Skin Protection During Radiotherapy in Patients With Breast Cancer: A Comparative Study of Evoskin® Verus Trixéra®</t>
   </si>
   <si>
-    <t>Impact on Functional Status of Early Oral Nutritional Supplementation (ONS) in Amyotrophic Lateral Sclerosis (ALS) Patients</t>
-  </si>
-  <si>
-    <t>Analytical Validation of the abioSCOPE Device With a PSP Test: Point-of-Care Precision, Sample Type Comparison and Sample Stability</t>
+    <t>Immunoglobulin Gene Rearrangement and Repair in Healthy Donors</t>
   </si>
   <si>
     <t>Pilot Study Comparing Two Techniques of Taking Care Analgesic in Patients 70 and Older, Awaiting Surgery After Extracapsular Fracture of the Proximal Femur</t>
   </si>
   <si>
-    <t>Immunoglobulin Gene Rearrangement and Repair in Healthy Donors</t>
-  </si>
-  <si>
     <t>Diagnostic and Prognosis Value of Circulating DNA for CRC Patients' Surveillance After Curative Treatment</t>
   </si>
   <si>
+    <t>Scleroderma: Description of Functional Disability Between the Dominant and Contralateral Hand, a Single-centre Descriptive Cohort.</t>
+  </si>
+  <si>
+    <t>Analytical Validation of the abioSCOPE Device With the IVD CAPSULE PSP Test: Comparison of PSP Values Measured With Venous Whole Blood and Those Measured With Arterial Whole Blood</t>
+  </si>
+  <si>
     <t>Effects of an Exergame Focused on Cognitive-motor Interference on the Cognitive and Motor Capacities of Older Adults</t>
   </si>
   <si>
-    <t>Scleroderma: Description of Functional Disability Between the Dominant and Contralateral Hand, a Single-centre Descriptive Cohort.</t>
-  </si>
-  <si>
-    <t>Analytical Validation of the abioSCOPE Device With the IVD CAPSULE PSP Test: Comparison of PSP Values Measured With Venous Whole Blood and Those Measured With Arterial Whole Blood</t>
-  </si>
-  <si>
     <t>Oxygen Consumption in Post-stroke Patients During Various Walking Activities Compared to Healthy Controls</t>
   </si>
   <si>
     <t>Evaluation of Thoracic Ultrasound in Monitoring Pleural Drainage in Postoperative Thoracic Surgery</t>
   </si>
   <si>
+    <t>Temporal Variation of the Exposure to Pesticides in the Employees of the Limoges University Hospital</t>
+  </si>
+  <si>
     <t>Study of the Therapeutic Response and Survival of Patients with Metastatic Colorectal Cancer (stage IV) and Treated According to the Guidelines of a Chemosensitivity Test, Oncogramme®</t>
   </si>
   <si>
+    <t>Diagnostic Accuracy of Flow Cytometry Applied to the Diagnosis of Peri-anaesthesic Reactions Induced by Neuromuscular Blockers</t>
+  </si>
+  <si>
     <t>Efficacité d'un ocytocique seul versus ocytocique/misoprostol sur la quantité des pertes sanguines liées à la délivrance</t>
   </si>
   <si>
-    <t>Diagnostic Accuracy of Flow Cytometry Applied to the Diagnosis of Peri-anaesthesic Reactions Induced by Neuromuscular Blockers</t>
-  </si>
-  <si>
     <t>Evaluation of Two Enteral Nutrition Strategies in Mechanically Ventilated Patients</t>
   </si>
   <si>
@@ -674,34 +680,37 @@
     <t>CINAM</t>
   </si>
   <si>
+    <t>Dolastron</t>
+  </si>
+  <si>
     <t>DatScan</t>
   </si>
   <si>
-    <t>Dolastron</t>
-  </si>
-  <si>
     <t>fradius</t>
   </si>
   <si>
     <t>anémie</t>
   </si>
   <si>
+    <t>chondro</t>
+  </si>
+  <si>
     <t>Cytoven</t>
   </si>
   <si>
     <t>FRAXIO</t>
   </si>
   <si>
-    <t>chondro</t>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>MONOCEPT</t>
   </si>
   <si>
     <t>CBNPC:PCE</t>
   </si>
   <si>
-    <t>MONOCEPT</t>
-  </si>
-  <si>
-    <t>MIBI</t>
+    <t>PARATRON</t>
   </si>
   <si>
     <t>PIGREC</t>
@@ -713,175 +722,175 @@
     <t>PHRC CMV</t>
   </si>
   <si>
-    <t>PARATRON</t>
-  </si>
-  <si>
     <t>LINIPOCHE</t>
   </si>
   <si>
     <t>FUO-TEP</t>
   </si>
   <si>
+    <t>NEPHRUTIX</t>
+  </si>
+  <si>
     <t>HEMOSEPSIS</t>
   </si>
   <si>
-    <t>NEPHRUTIX</t>
-  </si>
-  <si>
     <t>TARSEQ</t>
   </si>
   <si>
     <t>GEROPASS</t>
   </si>
   <si>
+    <t>SUIVIOBESITE</t>
+  </si>
+  <si>
+    <t>NIDOCIGA</t>
+  </si>
+  <si>
+    <t>RACCOSA</t>
+  </si>
+  <si>
     <t>MI-K</t>
   </si>
   <si>
-    <t>RACCOSA</t>
-  </si>
-  <si>
-    <t>SUIVIOBESITE</t>
-  </si>
-  <si>
-    <t>NIDOCIGA</t>
-  </si>
-  <si>
     <t>GASTROPOP</t>
   </si>
   <si>
+    <t>PUCES</t>
+  </si>
+  <si>
+    <t>APAC</t>
+  </si>
+  <si>
+    <t>TRANSFECMV</t>
+  </si>
+  <si>
+    <t>PTGMass</t>
+  </si>
+  <si>
+    <t>DFGBay</t>
+  </si>
+  <si>
     <t>ANTHARTIC</t>
   </si>
   <si>
-    <t>PTGMass</t>
-  </si>
-  <si>
-    <t>DFGBay</t>
-  </si>
-  <si>
-    <t>APAC</t>
-  </si>
-  <si>
-    <t>PUCES</t>
-  </si>
-  <si>
-    <t>TRANSFECMV</t>
+    <t>PCEA-IMG</t>
+  </si>
+  <si>
+    <t>I-PPOP</t>
+  </si>
+  <si>
+    <t>TICAA'DOM</t>
+  </si>
+  <si>
+    <t>FIBROSCAME</t>
+  </si>
+  <si>
+    <t>EMAF</t>
+  </si>
+  <si>
+    <t>POEMS</t>
   </si>
   <si>
     <t>BUMAUTEP 
  BUMAUTEP</t>
   </si>
   <si>
-    <t>FIBROSCAME</t>
-  </si>
-  <si>
-    <t>TICAA'DOM</t>
-  </si>
-  <si>
-    <t>POEMS</t>
+    <t>Metvix®, Natural Daylight Photodynamic Therapy, Actinic keratosis</t>
+  </si>
+  <si>
+    <t>GASTRO-SGS</t>
   </si>
   <si>
     <t>ABIOSCILLO</t>
   </si>
   <si>
-    <t>I-PPOP</t>
-  </si>
-  <si>
-    <t>PCEA-IMG</t>
-  </si>
-  <si>
-    <t>GASTRO-SGS</t>
-  </si>
-  <si>
-    <t>Metvix®, Natural Daylight Photodynamic Therapy, Actinic keratosis</t>
-  </si>
-  <si>
-    <t>EMAF</t>
+    <t>RITUELIM</t>
+  </si>
+  <si>
+    <t>e-COBAHLT</t>
+  </si>
+  <si>
+    <t>TOUTETDOU</t>
   </si>
   <si>
     <t>BECONNEC</t>
   </si>
   <si>
+    <t>ICM-AVC</t>
+  </si>
+  <si>
+    <t>DFG HEP</t>
+  </si>
+  <si>
+    <t>WISLON</t>
+  </si>
+  <si>
+    <t>PEMPA</t>
+  </si>
+  <si>
+    <t>STOIC</t>
+  </si>
+  <si>
     <t>IMPAKT</t>
   </si>
   <si>
-    <t>e-COBAHLT</t>
-  </si>
-  <si>
-    <t>RITUELIM</t>
-  </si>
-  <si>
-    <t>PEMPA</t>
-  </si>
-  <si>
-    <t>TOUTETDOU</t>
-  </si>
-  <si>
-    <t>WISLON</t>
-  </si>
-  <si>
-    <t>DFG HEP</t>
-  </si>
-  <si>
     <t>GERONTACCESS</t>
   </si>
   <si>
-    <t>ICM-AVC</t>
-  </si>
-  <si>
-    <t>STOIC</t>
+    <t>REFRACT</t>
   </si>
   <si>
     <t>ENIGME</t>
   </si>
   <si>
-    <t>REFRACT</t>
-  </si>
-  <si>
     <t>AMYDARA</t>
   </si>
   <si>
+    <t>NUTRALS</t>
+  </si>
+  <si>
+    <t>AB-PSP-005</t>
+  </si>
+  <si>
     <t>EVOSKIN</t>
   </si>
   <si>
-    <t>NUTRALS</t>
-  </si>
-  <si>
-    <t>AB-PSP-005</t>
+    <t>R2IGH</t>
   </si>
   <si>
     <t>ALGOFRACT</t>
   </si>
   <si>
-    <t>R2IGH</t>
-  </si>
-  <si>
     <t>ADNCirc</t>
   </si>
   <si>
+    <t>SCLERO-HAND</t>
+  </si>
+  <si>
+    <t>AB-PSP-006</t>
+  </si>
+  <si>
     <t>INCOME</t>
   </si>
   <si>
-    <t>SCLERO-HAND</t>
-  </si>
-  <si>
-    <t>AB-PSP-006</t>
-  </si>
-  <si>
     <t>STROXCO</t>
   </si>
   <si>
     <t>EchTHor</t>
   </si>
   <si>
+    <t>VESTAL</t>
+  </si>
+  <si>
     <t>ONCOGRAM</t>
   </si>
   <si>
+    <t>CYPREANE</t>
+  </si>
+  <si>
     <t>GYMISO</t>
   </si>
   <si>
-    <t>CYPREANE</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
@@ -897,13 +906,13 @@
     <t>COMBINATION_PRODUCT</t>
   </si>
   <si>
-    <t>RADIATION</t>
+    <t>DEVICE</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
   </si>
   <si>
     <t>DIETARY_SUPPLEMENT</t>
@@ -1267,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1313,53 +1322,53 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1373,16 +1382,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="I5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1396,13 +1402,16 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>220</v>
       </c>
       <c r="I6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1416,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1436,13 +1445,13 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1456,16 +1465,16 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1479,16 +1488,16 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1502,16 +1511,16 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I11" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1525,16 +1534,16 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1548,53 +1557,53 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I13" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="H14" t="s">
+        <v>225</v>
       </c>
       <c r="I14" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="I15" t="s">
         <v>291</v>
@@ -1611,16 +1620,16 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I16" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1634,39 +1643,39 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I17" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
-      </c>
-      <c r="H18" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="I18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1680,39 +1689,39 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I19" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="H20" t="s">
+        <v>229</v>
       </c>
       <c r="I20" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1726,62 +1735,65 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H21" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I21" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H23" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I23" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1795,16 +1807,16 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1818,39 +1830,36 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I25" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
-        <v>101</v>
-      </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I26" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1864,16 +1873,16 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I27" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1887,13 +1896,13 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I28" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1907,19 +1916,19 @@
         <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H29" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I29" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1932,17 +1941,20 @@
       <c r="C30" t="s">
         <v>45</v>
       </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H30" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1955,20 +1967,17 @@
       <c r="C31" t="s">
         <v>46</v>
       </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I31" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1982,16 +1991,16 @@
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2005,16 +2014,16 @@
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H33" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2028,62 +2037,62 @@
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I34" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="D35" t="s">
-        <v>104</v>
-      </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
       <c r="F36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I36" t="s">
         <v>291</v>
@@ -2100,16 +2109,16 @@
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I37" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2123,65 +2132,62 @@
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H38" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
-      <c r="D39" t="s">
-        <v>105</v>
-      </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I39" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H40" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I40" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2195,39 +2201,39 @@
         <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H41" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I41" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H42" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I42" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2241,13 +2247,13 @@
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I43" t="s">
         <v>291</v>
@@ -2255,22 +2261,25 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
       <c r="F44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H44" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I44" t="s">
         <v>291</v>
@@ -2278,22 +2287,25 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H45" t="s">
-        <v>250</v>
+        <v>252</v>
+      </c>
+      <c r="I45" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2304,19 +2316,19 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H46" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I46" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2327,19 +2339,19 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I47" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2350,19 +2362,19 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I48" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2373,19 +2385,19 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H49" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I49" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2396,16 +2408,16 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I50" t="s">
         <v>291</v>
@@ -2413,74 +2425,74 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>107</v>
       </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H51" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I51" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
         <v>66</v>
       </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
       <c r="F52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H52" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>67</v>
       </c>
-      <c r="D53" t="s">
-        <v>107</v>
-      </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H53" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I53" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2494,42 +2506,39 @@
         <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H54" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I54" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
       </c>
-      <c r="D55" t="s">
-        <v>108</v>
-      </c>
       <c r="F55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H55" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I55" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2543,16 +2552,16 @@
         <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H56" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I56" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2566,36 +2575,39 @@
         <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H57" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
         <v>72</v>
       </c>
+      <c r="D58" t="s">
+        <v>109</v>
+      </c>
       <c r="F58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H58" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I58" t="s">
         <v>291</v>
@@ -2612,36 +2624,39 @@
         <v>73</v>
       </c>
       <c r="F59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H59" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I59" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>74</v>
       </c>
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
       <c r="F60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H60" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I60" t="s">
         <v>291</v>
@@ -2658,42 +2673,39 @@
         <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H61" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I61" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
         <v>76</v>
       </c>
-      <c r="D62" t="s">
-        <v>109</v>
-      </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I62" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2707,16 +2719,16 @@
         <v>77</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H63" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I63" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2730,16 +2742,16 @@
         <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H64" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I64" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2753,36 +2765,39 @@
         <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H65" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
       </c>
+      <c r="D66" t="s">
+        <v>111</v>
+      </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H66" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I66" t="s">
         <v>291</v>
@@ -2799,39 +2814,36 @@
         <v>81</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I67" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>82</v>
       </c>
-      <c r="D68" t="s">
-        <v>110</v>
-      </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H68" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I68" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2845,19 +2857,19 @@
         <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H69" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I69" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2871,16 +2883,16 @@
         <v>84</v>
       </c>
       <c r="F70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H70" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I70" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2894,16 +2906,16 @@
         <v>85</v>
       </c>
       <c r="F71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H71" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I71" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2917,16 +2929,16 @@
         <v>86</v>
       </c>
       <c r="F72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H72" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I72" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2940,16 +2952,16 @@
         <v>87</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H73" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I73" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2963,16 +2975,16 @@
         <v>88</v>
       </c>
       <c r="F74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H74" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I74" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2986,16 +2998,16 @@
         <v>89</v>
       </c>
       <c r="F75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H75" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I75" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3009,16 +3021,16 @@
         <v>90</v>
       </c>
       <c r="F76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I76" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3032,16 +3044,16 @@
         <v>91</v>
       </c>
       <c r="F77" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I77" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3055,16 +3067,16 @@
         <v>92</v>
       </c>
       <c r="F78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H78" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I78" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3078,16 +3090,16 @@
         <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G79" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H79" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I79" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3101,56 +3113,62 @@
         <v>94</v>
       </c>
       <c r="F80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H80" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I80" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
         <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H81" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I81" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>96</v>
+      </c>
+      <c r="F82" t="s">
+        <v>133</v>
       </c>
       <c r="G82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H82" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="I82" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3161,16 +3179,16 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H83" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I83" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3180,14 +3198,17 @@
       <c r="B84" t="s">
         <v>14</v>
       </c>
-      <c r="C84" t="s">
-        <v>97</v>
+      <c r="D84" t="s">
+        <v>113</v>
       </c>
       <c r="G84" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="H84" t="s">
+        <v>290</v>
       </c>
       <c r="I84" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3201,27 +3222,44 @@
         <v>98</v>
       </c>
       <c r="G85" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I85" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
         <v>99</v>
       </c>
       <c r="G86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I86" t="s">
-        <v>288</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>100</v>
+      </c>
+      <c r="G87" t="s">
+        <v>219</v>
+      </c>
+      <c r="I87" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
